--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E61F64-9F87-4F5F-A7A7-8BF94A0240EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E529280-B754-4E7A-B64A-DE4EECD60885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3158CE52-8A5C-4A2C-95FF-34F2F00C1B59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C2C03149-A8DC-4FF6-80B3-06876A270D5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="小結" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="5" r:id="rId2"/>
+    <sheet name="1.1.1.2 學士班個人申請入學錄取率" sheetId="6" r:id="rId3"/>
+    <sheet name="1.1.1.3 碩士班招生錄取率" sheetId="7" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.1.2 學士班個人申請入學錄取率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.1.1.3 碩士班招生錄取率'!$A$1:$G$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +44,360 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+  <si>
+    <t>全校</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>理</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>商</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>傳</t>
+  </si>
+  <si>
+    <t>國</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>創</t>
+  </si>
+  <si>
+    <t>資</t>
+  </si>
+  <si>
+    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.2 學士班個人申請入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.3 碩士班招生錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.4 博士班招生錄取率</t>
+  </si>
+  <si>
+    <t>1.1.2.1 學士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.2 碩士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.3 博士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.4 學士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.5 碩士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.6 博士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.3.1 碩士班招收本系畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.2 碩士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.3 博士班招收本系所畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.2.1.1 本國籍學士班新生就學穩定率</t>
+  </si>
+  <si>
+    <t>1.2.2.1 學士班至外系修讀輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.2 學士班至外系修讀雙主修比率</t>
+  </si>
+  <si>
+    <t>1.2.2.3 學士班開放外系修讀輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.4 學士班開放外系修讀雙主修比率</t>
+  </si>
+  <si>
+    <t>1.2.2.5 學士班每學年修畢輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.6 學士班每學年修畢雙主修比率</t>
+  </si>
+  <si>
+    <t>1.3.1.1 學士班獲國科會大專學生補助比率</t>
+  </si>
+  <si>
+    <t>1.3.1.2 博士班獲國科會赴國外研究補助比率</t>
+  </si>
+  <si>
+    <t>1.3.1.3 博士班獲國科會人社博士論文獎比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.2 碩士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.3 博士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.4 學士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.5 碩士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.6 博士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.7 外籍學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.8 陸生學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.9 僑生學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.5.1.1 學士班出國交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.2 碩博士班出國交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.3 學士班來校交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.4 碩博士班來校交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.5 學士班外籍學位生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.6 學士班陸生學位生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.7 學士班僑生學位生比率</t>
+  </si>
+  <si>
+    <t>1.6.1.1 學士班參與國內實習比率</t>
+  </si>
+  <si>
+    <t>1.6.1.2 學士班參與海外實習比率</t>
+  </si>
+  <si>
+    <t>1.7.1.1 學士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.2 碩士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.3 博士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.4 碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>1.7.1.5 博士班平均修業年限</t>
+  </si>
+  <si>
+    <t>1.8.1.1 學士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.2 學士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.3 碩士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.4 碩士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.5 博士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.6 博士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>2.1.1.1 平均學士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.1.1.2 平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.1.1.3 開設數位教學創新課程之情形</t>
+  </si>
+  <si>
+    <t>2.1.2.1 教學單位多元人學分數</t>
+  </si>
+  <si>
+    <t>2.2.1.1 平均每人中文期刊論文出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.2 平均每人外文期刊論文出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.3 平均每人中文專書出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.4 平均每人中文會議論文發表數</t>
+  </si>
+  <si>
+    <t>2.2.1.5 平均每人外文會議論文發表數</t>
+  </si>
+  <si>
+    <t>2.2.1.6 平均每人獲國科會研究計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.7 平均每人獲國科會研究計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.1.8 平均每人獲非國科會研究計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.9 平均每人獲非國科會研究計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.2.1 校內學術獲獎比例</t>
+  </si>
+  <si>
+    <t>2.2.2.2 校外學術獲獎比例</t>
+  </si>
+  <si>
+    <t>2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次</t>
+  </si>
+  <si>
+    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.1.1.1 各系所每學年生師比率</t>
+  </si>
+  <si>
+    <t>3.1.1.2 外籍師資比率</t>
+  </si>
+  <si>
+    <t>3.1.2.1 各系所每學年新進教師比率</t>
+  </si>
+  <si>
+    <t>3.1.2.2 各系所未來五年內退休教師比率</t>
+  </si>
+  <si>
+    <t>3.2.1.1 舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>3.2.1.2 學院執行高教深耕（國際性）計畫之執行率</t>
+  </si>
+  <si>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>000 政治大學（校加總 / 校均值）</t>
+  </si>
+  <si>
+    <t>校均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 文學院</t>
+  </si>
+  <si>
+    <t>700 理學院</t>
+  </si>
+  <si>
+    <t>200 社會科學學院</t>
+  </si>
+  <si>
+    <t>600 法學院</t>
+  </si>
+  <si>
+    <t>300 商學院</t>
+  </si>
+  <si>
+    <t>500 外國語文學院</t>
+  </si>
+  <si>
+    <t>400 傳播學院</t>
+  </si>
+  <si>
+    <t>800 國際事務學院</t>
+  </si>
+  <si>
+    <t>900 教育學院</t>
+  </si>
+  <si>
+    <t>Z23 創新國際學院</t>
+  </si>
+  <si>
+    <t>ZA0 資訊學院</t>
+  </si>
+  <si>
+    <t>資</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00%;\-0.00%;&quot;—&quot;"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,16 +411,135 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,19 +547,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{A08630FD-BFA5-430B-9484-8FD8695B90B1}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{CCF58476-47EB-4B6C-A6AB-EEDC6AE49DA6}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{4E90C618-2A0E-4FD9-BC57-AAF6D19CEE5F}"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,6 +629,2482 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5AD-4EF9-84D8-5055524D7189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5AD-4EF9-84D8-5055524D7189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5AD-4EF9-84D8-5055524D7189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E5AD-4EF9-84D8-5055524D7189}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E5AD-4EF9-84D8-5055524D7189}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E5C-4F69-9D8E-9B616531C227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E5C-4F69-9D8E-9B616531C227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E5C-4F69-9D8E-9B616531C227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4E5C-4F69-9D8E-9B616531C227}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E5C-4F69-9D8E-9B616531C227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9E5-4754-96B2-DCD46D5B0673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9E5-4754-96B2-DCD46D5B0673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9E5-4754-96B2-DCD46D5B0673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F9E5-4754-96B2-DCD46D5B0673}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>校均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>理</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>外</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>教</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>資</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9E5-4754-96B2-DCD46D5B0673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E84815-DEB7-465A-BCA0-9BF431B6A521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C472D4-1356-436E-A728-26BB091106C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD56623-B7E4-457C-A43A-7E8D38C9A305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="template"/>
+      <sheetName val="test1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>三年均值</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>110學年度</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>109學年度</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>108學年度</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>院均值</v>
+          </cell>
+          <cell r="C2">
+            <v>0.06</v>
+          </cell>
+          <cell r="D2">
+            <v>0.06</v>
+          </cell>
+          <cell r="E2">
+            <v>0.03</v>
+          </cell>
+          <cell r="F2">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>測試二</v>
+          </cell>
+          <cell r="C3">
+            <v>0.05</v>
+          </cell>
+          <cell r="D3">
+            <v>0.04</v>
+          </cell>
+          <cell r="E3">
+            <v>0.01</v>
+          </cell>
+          <cell r="F3">
+            <v>3.5000000000000003E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,15 +3403,1315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE9CE59-D22E-433F-9FE3-AE56EF9D1EBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB46143-62FE-4193-94B6-B7C08A261F15}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{EF0C05A3-938A-45CB-A95C-C0B0BF0DA21F}"/>
+    <hyperlink ref="A3" location="'1.1.1.2 學士班個人申請入學錄取率'!A1" display="1.1.1.2 學士班個人申請入學錄取率" xr:uid="{2F5354C1-0745-46B5-8350-B8EFFFDEDDE4}"/>
+    <hyperlink ref="A4" location="'1.1.1.3 碩士班招生錄取率'!A1" display="1.1.1.3 碩士班招生錄取率" xr:uid="{E12C839B-B0AB-4C7C-A3C2-67B69FDC18F3}"/>
+    <hyperlink ref="A5" location="'1.1.1.4 博士班招生錄取率'!A1" display="1.1.1.4 博士班招生錄取率" xr:uid="{1AE85E51-F785-46B2-BE60-B27DA6BD2E4C}"/>
+    <hyperlink ref="A6" location="'1.1.2.1 學士班註冊率'!A1" display="1.1.2.1 學士班註冊率" xr:uid="{E11298CD-4ECF-40DB-AFB8-469F3EACEA24}"/>
+    <hyperlink ref="A7" location="'1.1.2.2 碩士班註冊率'!A1" display="1.1.2.2 碩士班註冊率" xr:uid="{3231CF67-C1FD-4ECC-BF51-7BC53A88B37D}"/>
+    <hyperlink ref="A8" location="'1.1.2.3 博士班註冊率'!A1" display="1.1.2.3 博士班註冊率" xr:uid="{A56D5026-79F9-4939-B732-DC28CE7746D3}"/>
+    <hyperlink ref="A9" location="'1.1.2.4 學士班新生註冊率'!A1" display="1.1.2.4 學士班新生註冊率" xr:uid="{34B71794-AFDC-4066-BF8D-BE0FFD9243EF}"/>
+    <hyperlink ref="A10" location="'1.1.2.5 碩士班新生註冊率'!A1" display="1.1.2.5 碩士班新生註冊率" xr:uid="{710722BB-EA6E-4C8A-AA9E-14F7BA0C9E4D}"/>
+    <hyperlink ref="A11" location="'1.1.2.6 博士班新生註冊率'!A1" display="1.1.2.6 博士班新生註冊率" xr:uid="{9769C179-9FC5-4A78-B087-997759C3ED85}"/>
+    <hyperlink ref="A12" location="'1.1.3.1 碩士班招收本系畢業生比率'!A1" display="1.1.3.1 碩士班招收本系畢業生比率" xr:uid="{CF0C6220-5AFB-451A-A6F9-371A66A2D120}"/>
+    <hyperlink ref="A13" location="'1.1.3.2 碩士班招收國內重點大學畢業生比率'!A1" display="1.1.3.2 碩士班招收國內重點大學畢業生比率" xr:uid="{D7B6FDB5-1B6C-403F-BE23-FE3400629DF1}"/>
+    <hyperlink ref="A14" location="'1.1.3.3 博士班招收本系所畢業生比率'!A1" display="1.1.3.3 博士班招收本系所畢業生比率" xr:uid="{4F02D1C8-250D-4D7E-89F9-076DBFB8041F}"/>
+    <hyperlink ref="A15" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{738DEFAD-D4E1-4572-8C61-2C63174C0F36}"/>
+    <hyperlink ref="A16" location="'1.2.1.1 本國籍學士班新生就學穩定率'!A1" display="1.2.1.1 本國籍學士班新生就學穩定率" xr:uid="{3D372E56-7E20-451B-A10C-45B02F107FF9}"/>
+    <hyperlink ref="A17" location="'1.2.2.1 學士班至外系修讀輔系比率'!A1" display="1.2.2.1 學士班至外系修讀輔系比率" xr:uid="{159B1DD1-8FD7-4A30-80E4-6A80257C0035}"/>
+    <hyperlink ref="A18" location="'1.2.2.2 學士班至外系修讀雙主修比率'!A1" display="1.2.2.2 學士班至外系修讀雙主修比率" xr:uid="{27CA407B-4AC5-4C1E-8124-EB2E52245658}"/>
+    <hyperlink ref="A19" location="'1.2.2.3 學士班開放外系修讀輔系比率'!A1" display="1.2.2.3 學士班開放外系修讀輔系比率" xr:uid="{65FC5248-ABC3-470B-A038-8BA77EACF81B}"/>
+    <hyperlink ref="A20" location="'1.2.2.4 學士班開放外系修讀雙主修比率'!A1" display="1.2.2.4 學士班開放外系修讀雙主修比率" xr:uid="{00EDEE83-2635-48A0-B3CC-FB027910687A}"/>
+    <hyperlink ref="A21" location="'1.2.2.5 學士班每學年修畢輔系比率'!A1" display="1.2.2.5 學士班每學年修畢輔系比率" xr:uid="{9E076CE7-0511-4F16-8BC7-A871DBDD628E}"/>
+    <hyperlink ref="A22" location="'1.2.2.6 學士班每學年修畢雙主修比率'!A1" display="1.2.2.6 學士班每學年修畢雙主修比率" xr:uid="{D665EE60-12E2-48FB-9B40-746B6BB343FC}"/>
+    <hyperlink ref="A23" location="'1.3.1.1 學士班獲國科會大專學生補助比率'!A1" display="1.3.1.1 學士班獲國科會大專學生補助比率" xr:uid="{33924C68-FD3A-4544-8721-846FF225BCD4}"/>
+    <hyperlink ref="A24" location="'1.3.1.2 博士班獲國科會赴國外研究補助比率'!A1" display="1.3.1.2 博士班獲國科會赴國外研究補助比率" xr:uid="{9934770F-7EEE-4BB6-BA58-DD46DABEA3F7}"/>
+    <hyperlink ref="A25" location="'1.3.1.3 博士班獲國科會人社博士論文獎比率'!A1" display="1.3.1.3 博士班獲國科會人社博士論文獎比率" xr:uid="{7299BD9E-91B7-4886-B719-2F6EACB28DCC}"/>
+    <hyperlink ref="A26" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{1F43F6C2-BDD5-40FD-BD89-A79B8867B516}"/>
+    <hyperlink ref="A27" location="'1.4.1.2 碩士班獲獎助學金平均金額'!A1" display="1.4.1.2 碩士班獲獎助學金平均金額" xr:uid="{FDF26F49-45B5-4449-B5EC-594FAE881243}"/>
+    <hyperlink ref="A28" location="'1.4.1.3 博士班獲獎助學金平均金額'!A1" display="1.4.1.3 博士班獲獎助學金平均金額" xr:uid="{A5D8BAE3-2620-4CF5-A674-DC01A7E955A6}"/>
+    <hyperlink ref="A29" location="'1.4.1.4 學士班出國交換獲獎學金人數比率'!A1" display="1.4.1.4 學士班出國交換獲獎學金人數比率" xr:uid="{8EFA7813-DA8B-4248-A2A3-EEBA4FF40083}"/>
+    <hyperlink ref="A30" location="'1.4.1.5 碩士班出國交換獲獎學金人數比率'!A1" display="1.4.1.5 碩士班出國交換獲獎學金人數比率" xr:uid="{7A4417D8-8C2A-4161-88F4-57F256350107}"/>
+    <hyperlink ref="A31" location="'1.4.1.6 博士班出國交換獲獎學金人數比率'!A1" display="1.4.1.6 博士班出國交換獲獎學金人數比率" xr:uid="{30ED80A6-CCE5-4CC6-A12D-789AC618E38E}"/>
+    <hyperlink ref="A32" location="'1.4.1.7 外籍學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.7 外籍學位生入學獎學金獲獎人數比率" xr:uid="{EC429947-72D9-4116-8532-7248A25319B8}"/>
+    <hyperlink ref="A33" location="'1.4.1.8 陸生學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.8 陸生學位生入學獎學金獲獎人數比率" xr:uid="{17E2706F-85C8-4933-B91C-551752081C47}"/>
+    <hyperlink ref="A34" location="'1.4.1.9 僑生學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.9 僑生學位生入學獎學金獲獎人數比率" xr:uid="{251A2F41-0B96-4DC9-9D50-CB2781725590}"/>
+    <hyperlink ref="A35" location="'1.5.1.1 學士班出國交換學生比率'!A1" display="1.5.1.1 學士班出國交換學生比率" xr:uid="{B05E6D6F-88F5-48D5-9CCF-65357B9F3FC1}"/>
+    <hyperlink ref="A36" location="'1.5.1.2 碩博士班出國交換學生比率'!A1" display="1.5.1.2 碩博士班出國交換學生比率" xr:uid="{EDDC6460-8E29-4BEE-831C-CF651C4C26F7}"/>
+    <hyperlink ref="A37" location="'1.5.1.3 學士班來校交換學生比率'!A1" display="1.5.1.3 學士班來校交換學生比率" xr:uid="{4EE49A8C-8D3D-45C0-BA0C-215E91CF88AA}"/>
+    <hyperlink ref="A38" location="'1.5.1.4 碩博士班來校交換學生比率'!A1" display="1.5.1.4 碩博士班來校交換學生比率" xr:uid="{68B9FF92-8DC2-42C0-9B2E-205991385F96}"/>
+    <hyperlink ref="A39" location="'1.5.1.5 學士班外籍學位生比率'!A1" display="1.5.1.5 學士班外籍學位生比率" xr:uid="{71AE947E-685A-46EF-B498-0FEFC207CB40}"/>
+    <hyperlink ref="A40" location="'1.5.1.6 學士班陸生學位生比率'!A1" display="1.5.1.6 學士班陸生學位生比率" xr:uid="{921DBA91-4B7C-4692-B846-57D41943BDC5}"/>
+    <hyperlink ref="A41" location="'1.5.1.7 學士班僑生學位生比率'!A1" display="1.5.1.7 學士班僑生學位生比率" xr:uid="{03288D31-26F3-49B9-AB9C-C046A0FDB619}"/>
+    <hyperlink ref="A42" location="'1.6.1.1 學士班參與國內實習比率'!A1" display="1.6.1.1 學士班參與國內實習比率" xr:uid="{09A940C0-87A8-4481-B1A5-67135FC0D706}"/>
+    <hyperlink ref="A43" location="'1.6.1.2 學士班參與海外實習比率'!A1" display="1.6.1.2 學士班參與海外實習比率" xr:uid="{7A3F67BB-DF36-4A43-80F7-C21690130C2E}"/>
+    <hyperlink ref="A44" location="'1.7.1.1 學士班應屆畢業比率'!A1" display="1.7.1.1 學士班應屆畢業比率" xr:uid="{33F8DD1B-15DA-469A-95AD-C800A453F4D6}"/>
+    <hyperlink ref="A45" location="'1.7.1.2 碩士班應屆畢業比率'!A1" display="1.7.1.2 碩士班應屆畢業比率" xr:uid="{38C3BD60-2A20-4A78-8AF3-A4489898E477}"/>
+    <hyperlink ref="A46" location="'1.7.1.3 博士班應屆畢業比率'!A1" display="1.7.1.3 博士班應屆畢業比率" xr:uid="{CE011FED-07B4-452E-A6A1-DACA80102A0F}"/>
+    <hyperlink ref="A47" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{7D1B7790-2759-456C-A310-8BBD038D4116}"/>
+    <hyperlink ref="A48" location="'1.7.1.5 博士班平均修業年限'!A1" display="1.7.1.5 博士班平均修業年限" xr:uid="{1245BBE7-3E0D-4B08-9E01-CAC3711453D2}"/>
+    <hyperlink ref="A49" location="'1.8.1.1 學士班畢業一年後之就業率'!A1" display="1.8.1.1 學士班畢業一年後之就業率" xr:uid="{46A8106E-6132-4C38-B98A-CAFE5DBA3847}"/>
+    <hyperlink ref="A50" location="'1.8.1.2 學士班畢業三年後之就業率'!A1" display="1.8.1.2 學士班畢業三年後之就業率" xr:uid="{48F236C1-601D-4052-873F-D699C6740D53}"/>
+    <hyperlink ref="A51" location="'1.8.1.3 碩士班畢業一年後之就業率'!A1" display="1.8.1.3 碩士班畢業一年後之就業率" xr:uid="{B8C225A1-522B-462E-B3C1-5DA7434DD407}"/>
+    <hyperlink ref="A52" location="'1.8.1.4 碩士班畢業三年後之就業率'!A1" display="1.8.1.4 碩士班畢業三年後之就業率" xr:uid="{68CFA747-96D9-4EC1-B32B-7009526D7640}"/>
+    <hyperlink ref="A53" location="'1.8.1.5 博士班畢業一年後之就業率'!A1" display="1.8.1.5 博士班畢業一年後之就業率" xr:uid="{441BA396-FFA4-40A4-A856-2E8D54F30029}"/>
+    <hyperlink ref="A54" location="'1.8.1.6 博士班畢業三年後之就業率'!A1" display="1.8.1.6 博士班畢業三年後之就業率" xr:uid="{F41E0576-A688-457F-9DA3-3FB1F686CCEF}"/>
+    <hyperlink ref="A55" location="'2.1.1.1 平均學士班修課學生人數'!A1" display="2.1.1.1 平均學士班修課學生人數" xr:uid="{1DA15B58-684E-44CF-A38A-7F88096C658B}"/>
+    <hyperlink ref="A56" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{8EA436D3-D9C3-4E26-95C9-F2F1895919C9}"/>
+    <hyperlink ref="A57" location="'2.1.1.3 開設數位教學創新課程之情形'!A1" display="2.1.1.3 開設數位教學創新課程之情形" xr:uid="{63B3A1ED-DEAC-4FD9-AF8E-03D584A287A6}"/>
+    <hyperlink ref="A58" location="'2.1.2.1 教學單位多元人學分數'!A1" display="2.1.2.1 教學單位多元人學分數" xr:uid="{224D5542-F4B0-49AA-BCD0-93521614CDFD}"/>
+    <hyperlink ref="A59" location="'2.2.1.1 平均每人中文期刊論文出版數'!A1" display="2.2.1.1 平均每人中文期刊論文出版數" xr:uid="{F3E63F5D-105D-48A7-8D50-664B2EFF6A19}"/>
+    <hyperlink ref="A60" location="'2.2.1.2 平均每人外文期刊論文出版數'!A1" display="2.2.1.2 平均每人外文期刊論文出版數" xr:uid="{672DFED8-7208-437C-910C-EB0A57CE4D66}"/>
+    <hyperlink ref="A61" location="'2.2.1.3 平均每人中文專書出版數'!A1" display="2.2.1.3 平均每人中文專書出版數" xr:uid="{93B3654A-7FFC-4F20-8572-795DCF24DE4D}"/>
+    <hyperlink ref="A62" location="'2.2.1.4 平均每人中文會議論文發表數'!A1" display="2.2.1.4 平均每人中文會議論文發表數" xr:uid="{CA46E9F1-CCEE-4766-8526-8F3BB64D9EF8}"/>
+    <hyperlink ref="A63" location="'2.2.1.5 平均每人外文會議論文發表數'!A1" display="2.2.1.5 平均每人外文會議論文發表數" xr:uid="{6514D42E-3BED-4E2F-84E0-6B03CC4A06B0}"/>
+    <hyperlink ref="A64" location="'2.2.1.6 平均每人獲國科會研究計畫補助件數'!A1" display="2.2.1.6 平均每人獲國科會研究計畫補助件數" xr:uid="{51F4F0FB-319A-403C-8E99-5E62512AE102}"/>
+    <hyperlink ref="A65" location="'2.2.1.7 平均每人獲國科會研究計畫補助金額'!A1" display="2.2.1.7 平均每人獲國科會研究計畫補助金額" xr:uid="{9E0123A5-82A4-4D03-AF23-46493CEEEF80}"/>
+    <hyperlink ref="A66" location="'2.2.1.8 平均每人獲非國科會研究計畫補助件數'!A1" display="2.2.1.8 平均每人獲非國科會研究計畫補助件數" xr:uid="{56248879-F588-4BFF-8DD8-C4CF1649C236}"/>
+    <hyperlink ref="A67" location="'2.2.1.9 平均每人獲非國科會研究計畫補助金額'!A1" display="2.2.1.9 平均每人獲非國科會研究計畫補助金額" xr:uid="{A51E7A10-360D-4B09-B6CF-849A46DDD99A}"/>
+    <hyperlink ref="A68" location="'2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數'!A1" display="2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數" xr:uid="{B0FBBC53-D2B2-428D-BF9E-6D2453F79713}"/>
+    <hyperlink ref="A69" location="'2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額'!A1" display="2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額" xr:uid="{62042557-2815-41F6-80F4-5CCC2263B5F7}"/>
+    <hyperlink ref="A70" location="'2.2.2.1 校內學術獲獎比例'!A1" display="2.2.2.1 校內學術獲獎比例" xr:uid="{1B8DB04F-20E4-494F-947E-271C9B033AEC}"/>
+    <hyperlink ref="A71" location="'2.2.2.2 校外學術獲獎比例'!A1" display="2.2.2.2 校外學術獲獎比例" xr:uid="{45D14297-1143-40A8-A209-E572E90A4881}"/>
+    <hyperlink ref="A72" location="'2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次'!A1" display="2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次" xr:uid="{CB2DDDF1-ABE4-46B1-A4FC-B794B994342E}"/>
+    <hyperlink ref="A73" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{BC27301C-2951-4613-95EC-C973C03E358B}"/>
+    <hyperlink ref="A74" location="'3.1.1.1 各系所每學年生師比率'!A1" display="3.1.1.1 各系所每學年生師比率" xr:uid="{31617B70-E4B1-457A-91A5-505C98456A26}"/>
+    <hyperlink ref="A75" location="'3.1.1.2 外籍師資比率'!A1" display="3.1.1.2 外籍師資比率" xr:uid="{BF686A0C-92FE-40F4-B132-9D2DABA322B7}"/>
+    <hyperlink ref="A76" location="'3.1.2.1 各系所每學年新進教師比率'!A1" display="3.1.2.1 各系所每學年新進教師比率" xr:uid="{AF101B9D-DCAB-4B23-9CD4-F2AD0A38AE3E}"/>
+    <hyperlink ref="A77" location="'3.1.2.2 各系所未來五年內退休教師比率'!A1" display="3.1.2.2 各系所未來五年內退休教師比率" xr:uid="{03BC5A10-C7A0-40F5-87AC-263856550D5F}"/>
+    <hyperlink ref="A78" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{8611DFEE-8FAC-4AC3-9484-353880A33C43}"/>
+    <hyperlink ref="A79" location="'3.2.1.2 學院執行高教深耕（國際性）計畫之執行率'!A1" display="3.2.1.2 學院執行高教深耕（國際性）計畫之執行率" xr:uid="{8BBF8CB9-6A38-4C92-AA4D-5996203CAAA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAA5DA9-4A9F-4386-8225-D391365D88CA}">
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G13" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$13, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74801EBA-27DF-4767-9138-F441454504B4}">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G13" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$13, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E4AD4-1706-4323-B514-2F8D069D9A40}">
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G13" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$13, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F95732D-CCA4-4187-BC6C-2BA3DDB8A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D227D-0BEE-4E44-9E2D-34DE32A4A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
+    <workbookView xWindow="2730" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -559,7 +559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC5C-48B4-B351-0319B1150506}"/>
+              <c16:uniqueId val="{00000000-01CF-46D5-8DE8-1196A1DFD329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -653,7 +653,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC5C-48B4-B351-0319B1150506}"/>
+              <c16:uniqueId val="{00000001-01CF-46D5-8DE8-1196A1DFD329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,7 +747,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AC5C-48B4-B351-0319B1150506}"/>
+              <c16:uniqueId val="{00000002-01CF-46D5-8DE8-1196A1DFD329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -858,7 +858,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AC5C-48B4-B351-0319B1150506}"/>
+                  <c16:uniqueId val="{00000003-01CF-46D5-8DE8-1196A1DFD329}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -990,7 +990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AC5C-48B4-B351-0319B1150506}"/>
+              <c16:uniqueId val="{00000004-01CF-46D5-8DE8-1196A1DFD329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1330,7 +1330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AFD-4CE2-A335-4F7A29091D6C}"/>
+              <c16:uniqueId val="{00000000-8A9F-4240-954F-6F480E4610BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1424,7 +1424,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AFD-4CE2-A335-4F7A29091D6C}"/>
+              <c16:uniqueId val="{00000001-8A9F-4240-954F-6F480E4610BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,7 +1518,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AFD-4CE2-A335-4F7A29091D6C}"/>
+              <c16:uniqueId val="{00000002-8A9F-4240-954F-6F480E4610BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1629,7 +1629,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2AFD-4CE2-A335-4F7A29091D6C}"/>
+                  <c16:uniqueId val="{00000003-8A9F-4240-954F-6F480E4610BC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1761,7 +1761,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2AFD-4CE2-A335-4F7A29091D6C}"/>
+              <c16:uniqueId val="{00000004-8A9F-4240-954F-6F480E4610BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2101,7 +2101,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E5D-473F-96AC-41FDD1884CA0}"/>
+              <c16:uniqueId val="{00000000-CCD0-4D73-8F41-F423D4E7D851}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2195,7 +2195,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E5D-473F-96AC-41FDD1884CA0}"/>
+              <c16:uniqueId val="{00000001-CCD0-4D73-8F41-F423D4E7D851}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2289,7 +2289,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E5D-473F-96AC-41FDD1884CA0}"/>
+              <c16:uniqueId val="{00000002-CCD0-4D73-8F41-F423D4E7D851}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2400,7 +2400,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2E5D-473F-96AC-41FDD1884CA0}"/>
+                  <c16:uniqueId val="{00000003-CCD0-4D73-8F41-F423D4E7D851}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2532,7 +2532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2E5D-473F-96AC-41FDD1884CA0}"/>
+              <c16:uniqueId val="{00000004-CCD0-4D73-8F41-F423D4E7D851}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2872,7 +2872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1263-40A9-83DD-43240B9A60E6}"/>
+              <c16:uniqueId val="{00000000-33FD-48F2-9CB4-E806B378E540}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2966,7 +2966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1263-40A9-83DD-43240B9A60E6}"/>
+              <c16:uniqueId val="{00000001-33FD-48F2-9CB4-E806B378E540}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3060,7 +3060,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1263-40A9-83DD-43240B9A60E6}"/>
+              <c16:uniqueId val="{00000002-33FD-48F2-9CB4-E806B378E540}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3171,7 +3171,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1263-40A9-83DD-43240B9A60E6}"/>
+                  <c16:uniqueId val="{00000003-33FD-48F2-9CB4-E806B378E540}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3303,7 +3303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1263-40A9-83DD-43240B9A60E6}"/>
+              <c16:uniqueId val="{00000004-33FD-48F2-9CB4-E806B378E540}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3643,7 +3643,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35F4-4D28-84D4-A1973DEBF89A}"/>
+              <c16:uniqueId val="{00000000-4EA2-4983-85E5-22D8DE20D57A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3737,7 +3737,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35F4-4D28-84D4-A1973DEBF89A}"/>
+              <c16:uniqueId val="{00000001-4EA2-4983-85E5-22D8DE20D57A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3831,7 +3831,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35F4-4D28-84D4-A1973DEBF89A}"/>
+              <c16:uniqueId val="{00000002-4EA2-4983-85E5-22D8DE20D57A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3942,7 +3942,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-35F4-4D28-84D4-A1973DEBF89A}"/>
+                  <c16:uniqueId val="{00000003-4EA2-4983-85E5-22D8DE20D57A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4074,7 +4074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-35F4-4D28-84D4-A1973DEBF89A}"/>
+              <c16:uniqueId val="{00000004-4EA2-4983-85E5-22D8DE20D57A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4414,7 +4414,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D52F-474B-B885-FEE334AE1047}"/>
+              <c16:uniqueId val="{00000000-466B-47BA-AED4-EB50497F188D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4508,7 +4508,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D52F-474B-B885-FEE334AE1047}"/>
+              <c16:uniqueId val="{00000001-466B-47BA-AED4-EB50497F188D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4602,7 +4602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D52F-474B-B885-FEE334AE1047}"/>
+              <c16:uniqueId val="{00000002-466B-47BA-AED4-EB50497F188D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4713,7 +4713,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D52F-474B-B885-FEE334AE1047}"/>
+                  <c16:uniqueId val="{00000003-466B-47BA-AED4-EB50497F188D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4845,7 +4845,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D52F-474B-B885-FEE334AE1047}"/>
+              <c16:uniqueId val="{00000004-466B-47BA-AED4-EB50497F188D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5185,7 +5185,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-13A4-40EA-8F83-1488ACA7D044}"/>
+              <c16:uniqueId val="{00000000-1971-4A1C-A566-C6B4219F3C59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5279,7 +5279,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-13A4-40EA-8F83-1488ACA7D044}"/>
+              <c16:uniqueId val="{00000001-1971-4A1C-A566-C6B4219F3C59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5373,7 +5373,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-13A4-40EA-8F83-1488ACA7D044}"/>
+              <c16:uniqueId val="{00000002-1971-4A1C-A566-C6B4219F3C59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5484,7 +5484,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-13A4-40EA-8F83-1488ACA7D044}"/>
+                  <c16:uniqueId val="{00000003-1971-4A1C-A566-C6B4219F3C59}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5616,7 +5616,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-13A4-40EA-8F83-1488ACA7D044}"/>
+              <c16:uniqueId val="{00000004-1971-4A1C-A566-C6B4219F3C59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5845,7 +5845,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00AB16B-B063-4B78-BF4B-96B6A790142B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89AF561-E89F-40D1-A44B-CDE58A33D155}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5878,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA2BD3-AD95-4925-9D3B-88DE6CF7869B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DBDCD9-31C8-4F07-9F89-C13B8CB62516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5911,7 +5911,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43AD774-EC3C-4773-BFC1-666B69DADC66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D276DD5A-4751-41F3-9B81-EF52B9CBD8D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5944,7 +5944,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBEAB49-15AD-4148-93BC-D84DF2990882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64F4C1C-56FF-40E6-B49C-9B480515DD93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5977,7 +5977,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23152092-E362-44A5-B36C-AB03E4B66F80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF4D80F-92A3-4570-846A-943A876FC372}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6010,7 +6010,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51997F1-AC30-4A7F-9B6F-7A11F7018E3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4144C2-7F14-40F6-A2E0-01F459D527B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6043,7 +6043,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E50C031-3DDE-410D-AE30-295EAFBEF0B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AA4B63-FBA1-4142-9549-D0E288A03C3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6093,7 +6093,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -6110,7 +6110,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6517,25 +6517,26 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{CBF8F3C0-B917-4EA8-9DD7-FFD6BB51449F}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{B57661C2-D1F5-407D-8520-DA26FC6418B0}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{3295B635-F9DD-4C40-93A2-4582FC7AF6DA}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{10535A29-0197-495A-89C0-BB33781681C5}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{BDB28D72-950E-4F12-A801-7E876315B4B5}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{BA12D079-3D0A-4D13-8DE5-9212BF27BDF6}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{7E640832-C61D-43E6-8177-3688B84FB8C7}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{B458A4AC-45D5-4F2C-A6BD-D66E7DAE0EC0}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{DF8616E5-5700-4111-AC4F-0BA156547917}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{06D937D2-8E4D-47C8-8B06-8E05F6087336}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{FD06288E-E8AC-4AFE-874E-25F65F99A6A5}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{B79A1FD5-AA75-41DA-BCAB-5E42B47059F0}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{CB5CA16F-9874-4D3B-9F7E-62F964A5861D}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{A9BD18F3-DF5B-4FCE-9EFD-0E55B9A4E3A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5912825A-1953-47FB-A264-8A90A936842C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDBB3C2-9441-4F42-9898-96022C322B0E}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6590,9 +6591,7 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6743,7 +6742,9 @@
       <c r="F13" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -6759,12 +6760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024FF457-5D4E-49B0-83E0-BB521C52C9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870BF0FA-48E4-4221-99B9-20AD55AA4B7E}">
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6819,9 +6820,7 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6972,7 +6971,9 @@
       <c r="F13" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -6988,12 +6989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFEBD12-AA7D-4F39-A070-1B623AB4AA84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C0C482-F522-4212-A792-7A89725FC996}">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7048,9 +7049,7 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7201,7 +7200,9 @@
       <c r="F13" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -7217,12 +7218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EEBF6D-1B39-4AC8-8913-134D96C055D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747A694-EEDD-4A24-B384-81A211E017CA}">
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7277,9 +7278,7 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7430,7 +7429,9 @@
       <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -7446,12 +7447,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092C2BB3-7773-4568-88D4-5EDAECE1E2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6674E1-2D72-4D14-8B3A-BB939CC54E22}">
   <sheetPr codeName="工作表6"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7506,9 +7507,7 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7659,7 +7658,9 @@
       <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -7675,12 +7676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F64E8D-09D9-4325-B09E-2F54A39BB669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76711108-18F9-4B5B-89F7-C9A03BA131E1}">
   <sheetPr codeName="工作表7"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7735,9 +7736,7 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7888,7 +7887,9 @@
       <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -7904,12 +7905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C842EAAD-E6D4-4B55-9762-CC3FC7F0B569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC281A-AA98-41E4-8BDF-3713D6CE718A}">
   <sheetPr codeName="工作表8"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7964,9 +7965,7 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8117,7 +8116,9 @@
       <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D227D-0BEE-4E44-9E2D-34DE32A4A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3149ED1-4DCE-4843-A6E9-23255F9790AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
+    <workbookView xWindow="2730" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="6" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
     <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="42">
   <si>
     <t>全校</t>
   </si>
@@ -147,45 +144,59 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100 文學院</t>
-  </si>
-  <si>
-    <t>700 理學院</t>
-  </si>
-  <si>
-    <t>200 社會科學學院</t>
-  </si>
-  <si>
-    <t>600 法學院</t>
-  </si>
-  <si>
-    <t>300 商學院</t>
-  </si>
-  <si>
-    <t>500 外國語文學院</t>
-  </si>
-  <si>
-    <t>400 傳播學院</t>
-  </si>
-  <si>
-    <t>800 國際事務學院</t>
-  </si>
-  <si>
-    <t>900 教育學院</t>
-  </si>
-  <si>
-    <t>Z23 創新國際學院</t>
-  </si>
-  <si>
-    <t>ZA0 資訊學院</t>
-  </si>
-  <si>
     <t>資</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>校加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 文學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700 理學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 社會科學學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 法學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 商學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 外國語文學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400 傳播學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800 國際事務學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900 教育學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z23 創新國際學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZA0 資訊學院（院加總 / 院均值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -549,10 +560,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.1061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,10 +684,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>9.3600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5099999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,10 +808,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>8.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,10 +1080,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.91E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,10 +1451,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.1061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,10 +1575,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>9.3600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5099999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,10 +1699,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>8.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,10 +1971,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.91E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,10 +2342,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.1061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,10 +2466,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>9.3600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5099999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,10 +2590,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>8.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,10 +2862,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>9.5399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.91E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,72 +6437,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -6536,7 +6841,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6580,170 +6885,272 @@
         <v>27</v>
       </c>
       <c r="C2" s="10">
-        <v>0.06</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="D2" s="10">
-        <v>0.06</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.1061</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10">
+        <v>0.1162</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1018</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.1235</v>
+      </c>
+      <c r="G3" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1633</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.2069</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="10">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="10">
+        <v>0.1109</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.1615</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="10">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="10">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="10">
+        <v>0.1134</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.1429</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1268</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="10">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="10">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10">
-        <v>0.05</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="D13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G13" s="9">
-        <v>999</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6765,7 +7172,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6809,170 +7216,272 @@
         <v>27</v>
       </c>
       <c r="C2" s="10">
-        <v>0.06</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="D2" s="10">
-        <v>0.06</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.1061</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10">
+        <v>0.1162</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1018</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.1235</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1633</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.2069</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="10">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="10">
+        <v>0.1109</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.1615</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="10">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="10">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="10">
+        <v>0.1134</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.1429</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1268</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="10">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="10">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10">
-        <v>0.05</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="D13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="G13" s="9">
-        <v>999</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6994,7 +7503,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7038,170 +7547,272 @@
         <v>27</v>
       </c>
       <c r="C2" s="11">
-        <v>0.06</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="D2" s="11">
-        <v>0.06</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E2" s="11">
-        <v>0.03</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.1061</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="11">
+        <v>0.1162</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.1018</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.1235</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.1633</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.2069</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="11">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="11">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="11">
+        <v>0.1109</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="E7" s="11">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.1615</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="11">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="11">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="11">
+        <v>0.1134</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.1429</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.1268</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="11">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="11">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11">
-        <v>0.05</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G13" s="9">
-        <v>999</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7223,7 +7834,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7282,7 +7893,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -7295,7 +7906,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -7308,7 +7919,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -7321,7 +7932,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -7334,7 +7945,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -7347,7 +7958,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -7360,7 +7971,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -7373,7 +7984,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -7386,7 +7997,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
@@ -7399,7 +8010,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -7412,10 +8023,10 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12">
         <v>0.05</v>
@@ -7452,7 +8063,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7511,7 +8122,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -7524,7 +8135,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -7537,7 +8148,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -7550,7 +8161,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -7563,7 +8174,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -7576,7 +8187,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -7589,7 +8200,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -7602,7 +8213,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -7615,7 +8226,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
@@ -7628,7 +8239,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -7641,10 +8252,10 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12">
         <v>0.05</v>
@@ -7681,7 +8292,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7722,7 +8333,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7740,7 +8351,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -7753,7 +8364,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -7766,7 +8377,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -7779,7 +8390,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -7792,7 +8403,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -7805,7 +8416,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -7818,7 +8429,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -7831,7 +8442,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -7844,7 +8455,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
@@ -7857,7 +8468,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -7870,10 +8481,10 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12">
         <v>0.05</v>
@@ -7910,7 +8521,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7951,7 +8562,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7969,7 +8580,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -7982,7 +8593,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -7995,7 +8606,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -8008,7 +8619,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -8021,7 +8632,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -8034,7 +8645,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -8047,7 +8658,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -8060,7 +8671,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
@@ -8073,7 +8684,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
@@ -8086,7 +8697,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -8099,10 +8710,10 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12">
         <v>0.05</v>

--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3149ED1-4DCE-4843-A6E9-23255F9790AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57B89B-565D-47EC-B259-FA7E590E02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="6" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -50,64 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="42">
-  <si>
-    <t>全校</t>
-  </si>
-  <si>
-    <t>文</t>
-  </si>
-  <si>
-    <t>理</t>
-  </si>
-  <si>
-    <t>社</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>商</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>傳</t>
-  </si>
-  <si>
-    <t>國</t>
-  </si>
-  <si>
-    <t>教</t>
-  </si>
-  <si>
-    <t>創</t>
-  </si>
-  <si>
-    <t>資</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
   <si>
     <t>科系</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -144,59 +87,129 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>資</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>校加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>100 文學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>700 理學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>200 社會科學學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>600 法學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300 商學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>500 外國語文學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>400 傳播學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>800 國際事務學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>900 教育學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Z23 創新國際學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZA0 資訊學院（院加總 / 院均值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>文學院</t>
+  </si>
+  <si>
+    <t>理學院</t>
+  </si>
+  <si>
+    <t>社科院</t>
+  </si>
+  <si>
+    <t>法學院</t>
+  </si>
+  <si>
+    <t>商學院</t>
+  </si>
+  <si>
+    <t>外語學院</t>
+  </si>
+  <si>
+    <t>傳播學院</t>
+  </si>
+  <si>
+    <t>國務院</t>
+  </si>
+  <si>
+    <t>教育學院</t>
+  </si>
+  <si>
+    <t>創國院</t>
+  </si>
+  <si>
+    <t>資訊學院</t>
+  </si>
+  <si>
+    <t>資訊學院</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -513,42 +526,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -558,41 +538,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1615</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1268</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -600,7 +547,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01CF-46D5-8DE8-1196A1DFD329}"/>
+              <c16:uniqueId val="{00000000-C6F4-4E7E-8402-3621AD7F8A2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -637,42 +584,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -682,41 +596,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.3600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4399999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -724,7 +605,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01CF-46D5-8DE8-1196A1DFD329}"/>
+              <c16:uniqueId val="{00000001-C6F4-4E7E-8402-3621AD7F8A2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -761,42 +642,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -806,49 +654,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8.8200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6499999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6100000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8700000000000006E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-01CF-46D5-8DE8-1196A1DFD329}"/>
+              <c16:uniqueId val="{00000002-C6F4-4E7E-8402-3621AD7F8A2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -912,7 +727,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -959,7 +778,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-01CF-46D5-8DE8-1196A1DFD329}"/>
+                  <c16:uniqueId val="{00000003-C6F4-4E7E-8402-3621AD7F8A2F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -968,7 +787,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1033,42 +856,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1078,42 +868,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4800000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.91E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8700000000000006E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,7 +878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-01CF-46D5-8DE8-1196A1DFD329}"/>
+              <c16:uniqueId val="{00000004-C6F4-4E7E-8402-3621AD7F8A2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1404,42 +1161,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1449,41 +1173,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1615</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1268</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1491,7 +1182,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A9F-4240-954F-6F480E4610BC}"/>
+              <c16:uniqueId val="{00000000-4F49-4B19-871B-54F5DCA4005B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1528,42 +1219,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1573,41 +1231,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.3600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4399999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1615,7 +1240,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8A9F-4240-954F-6F480E4610BC}"/>
+              <c16:uniqueId val="{00000001-4F49-4B19-871B-54F5DCA4005B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1652,42 +1277,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1697,49 +1289,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8.8200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6499999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6100000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8700000000000006E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8A9F-4240-954F-6F480E4610BC}"/>
+              <c16:uniqueId val="{00000002-4F49-4B19-871B-54F5DCA4005B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1803,7 +1362,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1850,7 +1413,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8A9F-4240-954F-6F480E4610BC}"/>
+                  <c16:uniqueId val="{00000003-4F49-4B19-871B-54F5DCA4005B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1859,7 +1422,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1924,42 +1491,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,42 +1503,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4800000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.91E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8700000000000006E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,7 +1513,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8A9F-4240-954F-6F480E4610BC}"/>
+              <c16:uniqueId val="{00000004-4F49-4B19-871B-54F5DCA4005B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2295,42 +1796,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2340,41 +1808,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7100000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1615</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1268</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2382,7 +1817,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCD0-4D73-8F41-F423D4E7D851}"/>
+              <c16:uniqueId val="{00000000-A6FC-4555-955D-4DAB896A253A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2419,42 +1854,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2464,41 +1866,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.3600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4399999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2506,7 +1875,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CCD0-4D73-8F41-F423D4E7D851}"/>
+              <c16:uniqueId val="{00000001-A6FC-4555-955D-4DAB896A253A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2543,42 +1912,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2588,49 +1924,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8.8200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6499999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6100000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8700000000000006E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CCD0-4D73-8F41-F423D4E7D851}"/>
+              <c16:uniqueId val="{00000002-A6FC-4555-955D-4DAB896A253A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2694,7 +1997,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2741,7 +2048,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CCD0-4D73-8F41-F423D4E7D851}"/>
+                  <c16:uniqueId val="{00000003-A6FC-4555-955D-4DAB896A253A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2750,7 +2057,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2815,42 +2126,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2860,42 +2138,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.5399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4800000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.91E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8700000000000006E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,7 +2148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CCD0-4D73-8F41-F423D4E7D851}"/>
+              <c16:uniqueId val="{00000004-A6FC-4555-955D-4DAB896A253A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3186,42 +2431,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3231,19 +2443,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33FD-48F2-9CB4-E806B378E540}"/>
+              <c16:uniqueId val="{00000000-2D0A-44D2-A971-1D3BAEAD2518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3280,42 +2489,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3325,19 +2501,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-33FD-48F2-9CB4-E806B378E540}"/>
+              <c16:uniqueId val="{00000001-2D0A-44D2-A971-1D3BAEAD2518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3374,42 +2547,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3419,19 +2559,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-33FD-48F2-9CB4-E806B378E540}"/>
+              <c16:uniqueId val="{00000002-2D0A-44D2-A971-1D3BAEAD2518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3495,7 +2632,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3542,7 +2683,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-33FD-48F2-9CB4-E806B378E540}"/>
+                  <c16:uniqueId val="{00000003-2D0A-44D2-A971-1D3BAEAD2518}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3551,7 +2692,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3616,42 +2761,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3661,12 +2773,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3674,7 +2783,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-33FD-48F2-9CB4-E806B378E540}"/>
+              <c16:uniqueId val="{00000004-2D0A-44D2-A971-1D3BAEAD2518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3957,42 +3066,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4002,19 +3078,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4EA2-4983-85E5-22D8DE20D57A}"/>
+              <c16:uniqueId val="{00000000-5B87-46DE-9EA9-68A5C10BC052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4051,42 +3124,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4096,19 +3136,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4EA2-4983-85E5-22D8DE20D57A}"/>
+              <c16:uniqueId val="{00000001-5B87-46DE-9EA9-68A5C10BC052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4145,42 +3182,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4190,19 +3194,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4EA2-4983-85E5-22D8DE20D57A}"/>
+              <c16:uniqueId val="{00000002-5B87-46DE-9EA9-68A5C10BC052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4266,7 +3267,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4313,7 +3318,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4EA2-4983-85E5-22D8DE20D57A}"/>
+                  <c16:uniqueId val="{00000003-5B87-46DE-9EA9-68A5C10BC052}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4322,7 +3327,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4387,42 +3396,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4432,12 +3408,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,7 +3418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4EA2-4983-85E5-22D8DE20D57A}"/>
+              <c16:uniqueId val="{00000004-5B87-46DE-9EA9-68A5C10BC052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4728,42 +3701,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4773,19 +3713,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-466B-47BA-AED4-EB50497F188D}"/>
+              <c16:uniqueId val="{00000000-42CD-42B8-9573-8A07271E25F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4822,42 +3759,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4867,19 +3771,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-466B-47BA-AED4-EB50497F188D}"/>
+              <c16:uniqueId val="{00000001-42CD-42B8-9573-8A07271E25F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4916,42 +3817,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4961,19 +3829,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-466B-47BA-AED4-EB50497F188D}"/>
+              <c16:uniqueId val="{00000002-42CD-42B8-9573-8A07271E25F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5037,7 +3902,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5084,7 +3953,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-466B-47BA-AED4-EB50497F188D}"/>
+                  <c16:uniqueId val="{00000003-42CD-42B8-9573-8A07271E25F0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5093,7 +3962,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5158,42 +4031,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5203,12 +4043,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5216,7 +4053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-466B-47BA-AED4-EB50497F188D}"/>
+              <c16:uniqueId val="{00000004-42CD-42B8-9573-8A07271E25F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5499,42 +4336,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5544,19 +4348,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1971-4A1C-A566-C6B4219F3C59}"/>
+              <c16:uniqueId val="{00000000-A52A-46E4-98A3-6D38836B12BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5593,42 +4394,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5638,19 +4406,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1971-4A1C-A566-C6B4219F3C59}"/>
+              <c16:uniqueId val="{00000001-A52A-46E4-98A3-6D38836B12BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5687,42 +4452,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5732,19 +4464,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1971-4A1C-A566-C6B4219F3C59}"/>
+              <c16:uniqueId val="{00000002-A52A-46E4-98A3-6D38836B12BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5808,7 +4537,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5855,7 +4588,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1971-4A1C-A566-C6B4219F3C59}"/>
+                  <c16:uniqueId val="{00000003-A52A-46E4-98A3-6D38836B12BD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5864,7 +4597,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5929,42 +4666,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>校加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>文</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>理</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>社</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>法</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>商</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>外</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>傳</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>教</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>創</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>資</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5974,12 +4678,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5987,7 +4688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1971-4A1C-A566-C6B4219F3C59}"/>
+              <c16:uniqueId val="{00000004-A52A-46E4-98A3-6D38836B12BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6216,7 +4917,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89AF561-E89F-40D1-A44B-CDE58A33D155}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F572CCB0-9633-4B0F-ABD2-87F5A359423E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6249,7 +4950,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DBDCD9-31C8-4F07-9F89-C13B8CB62516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5AD554-3A58-448F-A30F-1BADFBA89A8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6282,7 +4983,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D276DD5A-4751-41F3-9B81-EF52B9CBD8D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C378C5F3-A69B-4E51-A5F0-2B1216AD1450}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6315,7 +5016,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64F4C1C-56FF-40E6-B49C-9B480515DD93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259610B6-EE88-4025-99D2-4EAC1E7C8AA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6348,7 +5049,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF4D80F-92A3-4570-846A-943A876FC372}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AD67EF-A642-40C9-8961-DD3E670BA4A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6381,7 +5082,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4144C2-7F14-40F6-A2E0-01F459D527B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D493CC-B93F-48B1-8F7C-31D2CC928A44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6414,7 +5115,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AA4B63-FBA1-4142-9549-D0E288A03C3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6940AB-C56D-4DE7-8025-09E59B0F8DE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6732,103 +5433,185 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C5470C97-1A3C-4522-8A03-5EB2A861E9F6}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A88D9AE-637E-47CE-A25F-8B2A3297BEF8}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="7.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{B458A4AC-45D5-4F2C-A6BD-D66E7DAE0EC0}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{DF8616E5-5700-4111-AC4F-0BA156547917}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{06D937D2-8E4D-47C8-8B06-8E05F6087336}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{FD06288E-E8AC-4AFE-874E-25F65F99A6A5}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{B79A1FD5-AA75-41DA-BCAB-5E42B47059F0}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{CB5CA16F-9874-4D3B-9F7E-62F964A5861D}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{A9BD18F3-DF5B-4FCE-9EFD-0E55B9A4E3A6}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{3ADB13A7-C3E4-4FCD-AFD8-9084C3407949}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{5D881E52-2380-4027-BE5C-158066E1CC36}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{2D5C9BAE-3F68-4E5C-94DF-86366E79F244}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{1950ABB6-0FC1-4624-88D4-982411F05647}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{FB6BA540-92F4-4A35-94FC-27B46432B3DC}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{455F344C-748C-41E5-B490-699223285508}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{32456FE5-E064-4688-9AD6-9F2E95B3AE07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6836,12 +5619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDBB3C2-9441-4F42-9898-96022C322B0E}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03ECD33-DCC0-4787-B770-FAAB852659CA}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6854,311 +5637,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10">
-        <v>9.5399999999999999E-2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="E2" s="10">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.1061</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.1162</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1018</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.1235</v>
-      </c>
-      <c r="G3" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.1633</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.2069</v>
-      </c>
-      <c r="G4" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="G6" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.1109</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="E7" s="10">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.1615</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.1134</v>
-      </c>
-      <c r="D10" s="10">
-        <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.1429</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.1268</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10">
-        <v>5.91E-2</v>
-      </c>
-      <c r="D11" s="10">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1.89E-2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1.89E-2</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>7.8700000000000006E-2</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="9">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7167,12 +5961,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870BF0FA-48E4-4221-99B9-20AD55AA4B7E}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A9937E-3963-470B-B8DE-6DDF3C12936E}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7185,311 +5979,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10">
-        <v>9.5399999999999999E-2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="E2" s="10">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.1061</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.1162</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1018</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.1235</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.1633</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.2069</v>
-      </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.1109</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="E7" s="10">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.1615</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.1134</v>
-      </c>
-      <c r="D10" s="10">
-        <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.1429</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.1268</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10">
-        <v>5.91E-2</v>
-      </c>
-      <c r="D11" s="10">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1.89E-2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1.89E-2</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>7.8700000000000006E-2</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="9">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7498,12 +6303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C0C482-F522-4212-A792-7A89725FC996}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CC21EA-0B6F-4ABC-B3DE-711A1C4E906F}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7516,311 +6321,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11">
-        <v>9.5399999999999999E-2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.1061</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.1162</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.1018</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.1235</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.1633</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.2069</v>
-      </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="F5" s="11">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.1109</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="E7" s="11">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.1615</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.1134</v>
-      </c>
-      <c r="D10" s="11">
-        <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.1429</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.1268</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11">
-        <v>5.91E-2</v>
-      </c>
-      <c r="D11" s="11">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="E11" s="11">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1.89E-2</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.89E-2</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="11">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>7.8700000000000006E-2</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="9">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7829,12 +6645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747A694-EEDD-4A24-B384-81A211E017CA}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AF192D-F351-4D44-8B2A-D168D17181E8}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7847,209 +6663,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8058,12 +6987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6674E1-2D72-4D14-8B3A-BB939CC54E22}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD138BEB-C43C-4AD7-A997-1DBA4442517B}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8076,209 +7005,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8287,12 +7329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76711108-18F9-4B5B-89F7-C9A03BA131E1}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51860F5F-CBAD-4E37-A710-D39401F6F179}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8305,209 +7347,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8516,12 +7671,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAC281A-AA98-41E4-8BDF-3713D6CE718A}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD37B54-9171-4913-B169-74971438575C}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8534,209 +7689,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57B89B-565D-47EC-B259-FA7E590E02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE222EA-14F3-423D-8821-217614AC7C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{5637C56F-4A66-4FBD-9450-EB78733DF21C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{E3400394-0E26-4170-A555-6D1C60A903D3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -50,81 +50,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="60">
   <si>
     <t>000 政治大學（校加總 / 校均值）</t>
   </si>
   <si>
-    <t>校均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>校加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>全校</t>
   </si>
   <si>
     <t>100 文學院（院加總 / 院均值）</t>
   </si>
   <si>
+    <t>文學院</t>
+  </si>
+  <si>
     <t>700 理學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>理學院</t>
   </si>
   <si>
     <t>200 社會科學學院（院加總 / 院均值）</t>
   </si>
   <si>
+    <t>社科院</t>
+  </si>
+  <si>
     <t>600 法學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>法學院</t>
   </si>
   <si>
     <t>300 商學院（院加總 / 院均值）</t>
   </si>
   <si>
+    <t>商學院</t>
+  </si>
+  <si>
     <t>500 外國語文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>外語學院</t>
   </si>
   <si>
     <t>400 傳播學院（院加總 / 院均值）</t>
   </si>
   <si>
+    <t>傳播學院</t>
+  </si>
+  <si>
     <t>800 國際事務學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>國務院</t>
   </si>
   <si>
     <t>900 教育學院（院加總 / 院均值）</t>
   </si>
   <si>
+    <t>教育學院</t>
+  </si>
+  <si>
     <t>Z23 創新國際學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>創國院</t>
   </si>
   <si>
     <t>ZA0 資訊學院（院加總 / 院均值）</t>
   </si>
   <si>
-    <t>全校</t>
+    <t>資訊學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -169,58 +166,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>文學院</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>理學院</t>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>社科院</t>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>法學院</t>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>商學院</t>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>外語學院</t>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>傳播學院</t>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>國務院</t>
-  </si>
-  <si>
-    <t>教育學院</t>
-  </si>
-  <si>
-    <t>創國院</t>
-  </si>
-  <si>
-    <t>資訊學院</t>
+    <t>校均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>資訊學院</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>校加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>無資料。</t>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校三年均值為9.54%，低於校三年均值者計有5個院，為創國院1.89%、教育學院5.91%、外語學院6.22%、社科院7.48%、資訊學院7.87%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校三年均值為38,683，高於校三年均值者計有6個院，為創國院92,225、國務院59,771、傳播學院42,888、教育學院42,303、文學院42,111、商學院38,702。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校三年均值為3.25，低於校三年均值者計有5個院，為商學院2.73、資訊學院2.83、國務院3.14、理學院3.19、社科院3.23。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校三年均值為31.25%，高於校三年均值者計有5個院，為理學院53.33%、傳播學院47.62%、商學院41.32%、教育學院40%、法學院31.58%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校三年均值為12.34，高於校三年均值者計有3個院，為商學院19.92、傳播學院15.4、資訊學院13.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校加總三年均值為13.33，包含文學院5.67、外語學院2、傳播學院2、理學院1、社科院1、商學院0.67、教育學院0.67、國務院0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校加總三年均值為19.67，包含文學院5.33、國務院5.33、社科院4、外語學院3.33、理學院1.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -403,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,15 +479,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{92DA225F-80A9-44C8-B9EC-833CA6EF9A53}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{677AB92C-991B-41D2-887B-5B08E7645548}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{FF25DF15-14DC-440A-B1AF-7DAF81FE4AB2}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{3DC361D6-35C5-4730-916C-4ADE1C3CFA52}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{D94CE217-92FE-4461-968C-696107F89496}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{7F6E109E-78CF-406C-A9AB-31F29166FC1A}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,8 +579,41 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -537,17 +623,50 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6F4-4E7E-8402-3621AD7F8A2F}"/>
+              <c16:uniqueId val="{00000000-6DD1-42EB-B3AE-BC08A609255C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -584,8 +703,41 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -595,17 +747,50 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5099999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3600000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6F4-4E7E-8402-3621AD7F8A2F}"/>
+              <c16:uniqueId val="{00000001-6DD1-42EB-B3AE-BC08A609255C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -642,8 +827,41 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -653,17 +871,50 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8200000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6F4-4E7E-8402-3621AD7F8A2F}"/>
+              <c16:uniqueId val="{00000002-6DD1-42EB-B3AE-BC08A609255C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,7 +1029,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C6F4-4E7E-8402-3621AD7F8A2F}"/>
+                  <c16:uniqueId val="{00000003-6DD1-42EB-B3AE-BC08A609255C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -856,8 +1107,41 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -867,10 +1151,43 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.91E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5399999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +1195,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C6F4-4E7E-8402-3621AD7F8A2F}"/>
+              <c16:uniqueId val="{00000004-6DD1-42EB-B3AE-BC08A609255C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -978,7 +1295,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1161,8 +1478,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1172,17 +1519,47 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.3226</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.36359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.17649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.3296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F49-4B19-871B-54F5DCA4005B}"/>
+              <c16:uniqueId val="{00000000-A6BB-4F76-908F-F40DF7D53318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1219,8 +1596,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1230,17 +1637,47 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1389</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.31580000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F49-4B19-871B-54F5DCA4005B}"/>
+              <c16:uniqueId val="{00000001-A6BB-4F76-908F-F40DF7D53318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1277,8 +1714,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1288,17 +1755,47 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F49-4B19-871B-54F5DCA4005B}"/>
+              <c16:uniqueId val="{00000002-A6BB-4F76-908F-F40DF7D53318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,7 +1910,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4F49-4B19-871B-54F5DCA4005B}"/>
+                  <c16:uniqueId val="{00000003-A6BB-4F76-908F-F40DF7D53318}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1491,8 +1988,38 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,10 +2029,40 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###%;###%;0%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +2070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4F49-4B19-871B-54F5DCA4005B}"/>
+              <c16:uniqueId val="{00000004-A6BB-4F76-908F-F40DF7D53318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,7 +2170,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1796,8 +2353,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1807,17 +2397,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71495.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37058.910000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40703.440000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40765.440000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44251.39</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34945.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34618.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32024.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40012.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6FC-4555-955D-4DAB896A253A}"/>
+              <c16:uniqueId val="{00000000-CC54-416E-904B-C8052C9E0C75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1854,8 +2477,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1865,17 +2521,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>73593.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54754.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45562.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47193.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38335.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40166.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31851.49</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37164.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32131.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32858.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37624.720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6FC-4555-955D-4DAB896A253A}"/>
+              <c16:uniqueId val="{00000001-CC54-416E-904B-C8052C9E0C75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1912,8 +2601,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1923,17 +2645,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>101541.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53085.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43904.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43030.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46139.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35876.589999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40493.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35168.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32121.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32687.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30604.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38470.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A6FC-4555-955D-4DAB896A253A}"/>
+              <c16:uniqueId val="{00000002-CC54-416E-904B-C8052C9E0C75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,7 +2803,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A6FC-4555-955D-4DAB896A253A}"/>
+                  <c16:uniqueId val="{00000003-CC54-416E-904B-C8052C9E0C75}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2126,8 +2881,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2137,10 +2925,43 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>92225.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59770.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42887.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42302.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42110.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38701.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38436.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35168.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34581.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33191.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31741.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38682.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,7 +2969,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A6FC-4555-955D-4DAB896A253A}"/>
+              <c16:uniqueId val="{00000004-CC54-416E-904B-C8052C9E0C75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2248,7 +3069,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2431,8 +3252,38 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2442,17 +3293,47 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D0A-44D2-A971-1D3BAEAD2518}"/>
+              <c16:uniqueId val="{00000000-CD4C-478B-8974-DB08A74BA3F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2489,8 +3370,38 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2500,17 +3411,47 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D0A-44D2-A971-1D3BAEAD2518}"/>
+              <c16:uniqueId val="{00000001-CD4C-478B-8974-DB08A74BA3F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2547,8 +3488,38 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2558,17 +3529,47 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2D0A-44D2-A971-1D3BAEAD2518}"/>
+              <c16:uniqueId val="{00000002-CD4C-478B-8974-DB08A74BA3F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +3684,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2D0A-44D2-A971-1D3BAEAD2518}"/>
+                  <c16:uniqueId val="{00000003-CD4C-478B-8974-DB08A74BA3F9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2761,8 +3762,38 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2772,10 +3803,40 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +3844,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2D0A-44D2-A971-1D3BAEAD2518}"/>
+              <c16:uniqueId val="{00000004-CD4C-478B-8974-DB08A74BA3F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2883,7 +3944,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3066,8 +4127,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3077,17 +4171,50 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B87-46DE-9EA9-68A5C10BC052}"/>
+              <c16:uniqueId val="{00000000-AA33-4FF8-9CB2-7D979264C19B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3124,8 +4251,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3135,17 +4295,50 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,###;#,###;0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,###;#,###;0">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B87-46DE-9EA9-68A5C10BC052}"/>
+              <c16:uniqueId val="{00000001-AA33-4FF8-9CB2-7D979264C19B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3182,8 +4375,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3193,17 +4419,50 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5B87-46DE-9EA9-68A5C10BC052}"/>
+              <c16:uniqueId val="{00000002-AA33-4FF8-9CB2-7D979264C19B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3318,7 +4577,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5B87-46DE-9EA9-68A5C10BC052}"/>
+                  <c16:uniqueId val="{00000003-AA33-4FF8-9CB2-7D979264C19B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3396,8 +4655,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3407,10 +4699,43 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +4743,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5B87-46DE-9EA9-68A5C10BC052}"/>
+              <c16:uniqueId val="{00000004-AA33-4FF8-9CB2-7D979264C19B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3518,7 +4843,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3701,8 +5026,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3712,17 +5070,50 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42CD-42B8-9573-8A07271E25F0}"/>
+              <c16:uniqueId val="{00000000-6419-465B-980E-BDC7088605D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3759,8 +5150,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3770,17 +5194,50 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42CD-42B8-9573-8A07271E25F0}"/>
+              <c16:uniqueId val="{00000001-6419-465B-980E-BDC7088605D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3817,8 +5274,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3828,17 +5318,50 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-42CD-42B8-9573-8A07271E25F0}"/>
+              <c16:uniqueId val="{00000002-6419-465B-980E-BDC7088605D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3953,7 +5476,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-42CD-42B8-9573-8A07271E25F0}"/>
+                  <c16:uniqueId val="{00000003-6419-465B-980E-BDC7088605D9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4031,8 +5554,41 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播學院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>商學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>教育學院</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>法學院</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>創國院</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4042,10 +5598,43 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>13.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,7 +5642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-42CD-42B8-9573-8A07271E25F0}"/>
+              <c16:uniqueId val="{00000004-6419-465B-980E-BDC7088605D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4153,7 +5742,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4336,8 +5925,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4347,17 +5954,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A52A-46E4-98A3-6D38836B12BD}"/>
+              <c16:uniqueId val="{00000000-3C82-4640-AFA9-71C4A0A40C53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4394,8 +6019,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4405,17 +6048,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A52A-46E4-98A3-6D38836B12BD}"/>
+              <c16:uniqueId val="{00000001-3C82-4640-AFA9-71C4A0A40C53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4452,8 +6113,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4463,17 +6142,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A52A-46E4-98A3-6D38836B12BD}"/>
+              <c16:uniqueId val="{00000002-3C82-4640-AFA9-71C4A0A40C53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4588,7 +6285,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A52A-46E4-98A3-6D38836B12BD}"/>
+                  <c16:uniqueId val="{00000003-3C82-4640-AFA9-71C4A0A40C53}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4666,8 +6363,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國務院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>社科院</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>外語學院</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>理學院</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資訊學院</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>校加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4677,10 +6392,28 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.670000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,7 +6421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A52A-46E4-98A3-6D38836B12BD}"/>
+              <c16:uniqueId val="{00000004-3C82-4640-AFA9-71C4A0A40C53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4788,7 +6521,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4917,7 +6650,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F572CCB0-9633-4B0F-ABD2-87F5A359423E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B77463E-FF04-4F9E-BB7A-1DAD10D20CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +6683,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5AD554-3A58-448F-A30F-1BADFBA89A8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45A147E-8333-4CB5-9857-4E0938EBB206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +6716,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C378C5F3-A69B-4E51-A5F0-2B1216AD1450}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57218D5A-EE23-4E76-AA38-AFAF1D7F8D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +6749,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259610B6-EE88-4025-99D2-4EAC1E7C8AA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94583828-30D7-47F2-98B2-DD64F585E972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5049,7 +6782,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AD67EF-A642-40C9-8961-DD3E670BA4A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C28C157-BEF0-4FF9-99EC-5E1113394D2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +6815,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D493CC-B93F-48B1-8F7C-31D2CC928A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F91098-A934-4ABC-AE31-B29587D7F2DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +6848,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6940AB-C56D-4DE7-8025-09E59B0F8DE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42CFF8E-423F-4DFB-A9C7-585390428507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5442,7 +7175,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C5470C97-1A3C-4522-8A03-5EB2A861E9F6}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9168BF28-D594-470B-A187-F971CE42BD19}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5454,13 +7187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A88D9AE-637E-47CE-A25F-8B2A3297BEF8}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DCCCD5-F086-4FB7-9286-C760BCB934C7}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5472,118 +7203,283 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12">
+        <v>7</v>
+      </c>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="12">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12">
+        <v>9</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12">
+        <v>11</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>7</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="12">
+        <v>6.75</v>
+      </c>
+      <c r="D7" s="12">
+        <v>6.25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>6.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5593,6 +7489,39 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C8" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8</v>
+      </c>
+      <c r="K8" s="12">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12">
+        <v>11</v>
+      </c>
+      <c r="M8" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -5601,17 +7530,173 @@
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>8</v>
+      </c>
+      <c r="K9" s="12">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12">
+        <v>9</v>
+      </c>
+      <c r="M9" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6.25</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6.04</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5.71</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7.75</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="H10" s="12">
+        <v>7.43</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5.68</v>
+      </c>
+      <c r="K10" s="12">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M10" s="12">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5.67</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5.92</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5.41</v>
+      </c>
+      <c r="F12" s="12">
+        <v>7.75</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7.05</v>
+      </c>
+      <c r="I12" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="J12" s="12">
+        <v>5.16</v>
+      </c>
+      <c r="K12" s="12">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="L12" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M12" s="12">
+        <v>6.16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{3ADB13A7-C3E4-4FCD-AFD8-9084C3407949}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{5D881E52-2380-4027-BE5C-158066E1CC36}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{2D5C9BAE-3F68-4E5C-94DF-86366E79F244}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{1950ABB6-0FC1-4624-88D4-982411F05647}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{FB6BA540-92F4-4A35-94FC-27B46432B3DC}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{455F344C-748C-41E5-B490-699223285508}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{32456FE5-E064-4688-9AD6-9F2E95B3AE07}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{DD2D5F40-C97A-426B-904E-CD22A79EB232}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{019E7426-617C-4A37-9B25-9E224D05BD79}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{461EC524-F0B2-430C-9187-3C56481A1AF9}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{203F63AA-488B-437F-BFAA-44B604A8F660}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{13A3CD4F-061C-4E43-9D72-AEE7013BC647}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{C076A881-89C7-4694-A9DC-2BEBB2035795}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{9FDE6FE4-7FFA-4256-8DF1-28CD8B467B9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5619,338 +7704,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03ECD33-DCC0-4787-B770-FAAB852659CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E40D798-5DC1-4C8A-A43C-6735B521C1F9}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C5" s="13">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.1109</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.1615</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.1134</v>
+      </c>
+      <c r="D8" s="13">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.1268</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.1162</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.1018</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.1235</v>
+      </c>
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.1633</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.2069</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.1061</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5961,301 +8046,301 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A9937E-3963-470B-B8DE-6DDF3C12936E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6895530-8374-4679-BABD-DFCF95EAABBE}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.5333</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.3085</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.3226</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.1389</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
+      <c r="C12" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.2928</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.3296</v>
+      </c>
+      <c r="G12" s="9">
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -6263,36 +8348,36 @@
         <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6303,338 +8388,340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CC21EA-0B6F-4ABC-B3DE-711A1C4E906F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FBF4D5-2F95-46F0-9C46-56A7E53821E5}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11">
+        <v>92225.279999999999</v>
+      </c>
+      <c r="D2" s="11">
+        <v>101541.13</v>
+      </c>
+      <c r="E2" s="11">
+        <v>73593.58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11">
+        <v>59770.73</v>
+      </c>
+      <c r="D3" s="11">
+        <v>53085.43</v>
+      </c>
+      <c r="E3" s="11">
+        <v>54754.54</v>
+      </c>
+      <c r="F3" s="11">
+        <v>71495.81</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11">
+        <v>42887.73</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43904.04</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45562.89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>39264.29</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11">
+        <v>42302.53</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43030.36</v>
+      </c>
+      <c r="E5" s="11">
+        <v>47193.33</v>
+      </c>
+      <c r="F5" s="11">
+        <v>37058.910000000003</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>42110.62</v>
+      </c>
+      <c r="D6" s="11">
+        <v>46139.62</v>
+      </c>
+      <c r="E6" s="11">
+        <v>38335.919999999998</v>
+      </c>
+      <c r="F6" s="11">
+        <v>40703.440000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
+        <v>38701.97</v>
+      </c>
+      <c r="D7" s="11">
+        <v>35876.589999999997</v>
+      </c>
+      <c r="E7" s="11">
+        <v>40166.74</v>
+      </c>
+      <c r="F7" s="11">
+        <v>40765.440000000002</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C8" s="11">
+        <v>38436.97</v>
+      </c>
+      <c r="D8" s="11">
+        <v>40493.83</v>
+      </c>
+      <c r="E8" s="11">
+        <v>31851.49</v>
+      </c>
+      <c r="F8" s="11">
+        <v>44251.39</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11">
+        <v>35168.19</v>
+      </c>
+      <c r="D9" s="11">
+        <v>35168.19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>34581.32</v>
+      </c>
+      <c r="D10" s="11">
+        <v>32121.39</v>
+      </c>
+      <c r="E10" s="11">
+        <v>37164.959999999999</v>
+      </c>
+      <c r="F10" s="11">
+        <v>34945.24</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>33191.129999999997</v>
+      </c>
+      <c r="D11" s="11">
+        <v>32687.64</v>
+      </c>
+      <c r="E11" s="11">
+        <v>32131.77</v>
+      </c>
+      <c r="F11" s="11">
+        <v>34618.550000000003</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
+        <v>31741.32</v>
+      </c>
+      <c r="D12" s="11">
+        <v>30604.86</v>
+      </c>
+      <c r="E12" s="11">
+        <v>32858.300000000003</v>
+      </c>
+      <c r="F12" s="11">
+        <v>32024.58</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11">
+        <v>38682.99</v>
+      </c>
+      <c r="D13" s="11">
+        <v>38470.54</v>
+      </c>
+      <c r="E13" s="11">
+        <v>37624.720000000001</v>
+      </c>
+      <c r="F13" s="11">
+        <v>40012.21</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6645,301 +8732,301 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AF192D-F351-4D44-8B2A-D168D17181E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F17A06E-4CB1-410D-959E-3FA7AAEE88F6}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.73</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.14</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3.24</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.12</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.08</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.19</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.38</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3.21</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>3.23</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.32</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3.52</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3.43</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3.64</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.62</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3.48</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3.39</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4.03</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.29</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3.85</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4.54</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4.74</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
+      <c r="C12" s="15">
+        <v>3.25</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3.22</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3.26</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3.28</v>
+      </c>
+      <c r="G12" s="9">
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -6947,36 +9034,36 @@
         <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6987,338 +9074,338 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD138BEB-C43C-4AD7-A997-1DBA4442517B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CEDF9-D2E0-46A8-9056-A55F1A6E55FD}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D2" s="15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E2" s="15">
+        <v>19.22</v>
+      </c>
+      <c r="F2" s="15">
+        <v>21.21</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15">
+        <v>15.4</v>
+      </c>
+      <c r="D3" s="15">
+        <v>15.85</v>
+      </c>
+      <c r="E3" s="15">
+        <v>15.12</v>
+      </c>
+      <c r="F3" s="15">
+        <v>15.29</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15">
+        <v>13.68</v>
+      </c>
+      <c r="D4" s="15">
+        <v>13.68</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10.34</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11.54</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15">
+        <v>10.66</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10.24</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10.55</v>
+      </c>
+      <c r="F6" s="15">
+        <v>11.28</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
+        <v>9.77</v>
+      </c>
+      <c r="D7" s="15">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E7" s="15">
+        <v>9.49</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9.08</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F8" s="15">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D9" s="15">
+        <v>8.32</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8.24</v>
+      </c>
+      <c r="F9" s="15">
+        <v>8.59</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>7.05</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7.04</v>
+      </c>
+      <c r="E10" s="15">
+        <v>7.29</v>
+      </c>
+      <c r="F10" s="15">
+        <v>6.82</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15">
+        <v>7.02</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6.74</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5.76</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15">
+        <v>5.78</v>
+      </c>
+      <c r="D12" s="15">
+        <v>5.45</v>
+      </c>
+      <c r="E12" s="16">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
+      <c r="C13" s="15">
+        <v>12.34</v>
+      </c>
+      <c r="D13" s="15">
+        <v>12.14</v>
+      </c>
+      <c r="E13" s="16">
+        <v>12</v>
+      </c>
+      <c r="F13" s="15">
+        <v>12.9</v>
+      </c>
+      <c r="G13" s="9">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7329,338 +9416,339 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51860F5F-CBAD-4E37-A710-D39401F6F179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FED1A5E-DA87-4C51-B4A5-4AC8280BB175}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5.67</v>
+      </c>
+      <c r="D2" s="16">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
+      <c r="C13" s="15">
+        <v>13.33</v>
+      </c>
+      <c r="D13" s="16">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16">
+        <v>14</v>
+      </c>
+      <c r="F13" s="16">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7671,301 +9759,303 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD37B54-9171-4913-B169-74971438575C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DFFEC-F464-4E25-936A-D83456E7FD67}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="16">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.33</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="15">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="D8" s="16">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16">
+        <v>33</v>
+      </c>
+      <c r="G8" s="9">
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
@@ -7973,36 +10063,36 @@
         <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE222EA-14F3-423D-8821-217614AC7C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310F437-E930-416C-BABE-392D70C4BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{E3400394-0E26-4170-A555-6D1C60A903D3}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{E3400394-0E26-4170-A555-6D1C60A903D3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -212,42 +212,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校三年均值為9.54%，低於校三年均值者計有5個院，為創國院1.89%、教育學院5.91%、外語學院6.22%、社科院7.48%、資訊學院7.87%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校三年均值為31.25%，高於校三年均值者計有5個院，為理學院53.33%、傳播學院47.62%、商學院41.32%、教育學院40%、法學院31.58%。</t>
   </si>
   <si>
     <t>校三年均值為38,683，高於校三年均值者計有6個院，為創國院92,225、國務院59,771、傳播學院42,888、教育學院42,303、文學院42,111、商學院38,702。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校三年均值為3.25，低於校三年均值者計有5個院，為商學院2.73、資訊學院2.83、國務院3.14、理學院3.19、社科院3.23。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校三年均值為31.25%，高於校三年均值者計有5個院，為理學院53.33%、傳播學院47.62%、商學院41.32%、教育學院40%、法學院31.58%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校三年均值為12.34，高於校三年均值者計有3個院，為商學院19.92、傳播學院15.4、資訊學院13.68。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校加總三年均值為13.33，包含文學院5.67、外語學院2、傳播學院2、理學院1、社科院1、商學院0.67、教育學院0.67、國務院0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校加總三年均值為19.67，包含文學院5.33、國務院5.33、社科院4、外語學院3.33、理學院1.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -256,10 +248,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -479,9 +471,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,6 +481,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,7 +658,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DD1-42EB-B3AE-BC08A609255C}"/>
+              <c16:uniqueId val="{00000000-D28D-4A8B-83E7-675B0B8A915A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -790,7 +782,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DD1-42EB-B3AE-BC08A609255C}"/>
+              <c16:uniqueId val="{00000001-D28D-4A8B-83E7-675B0B8A915A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -914,7 +906,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6DD1-42EB-B3AE-BC08A609255C}"/>
+              <c16:uniqueId val="{00000002-D28D-4A8B-83E7-675B0B8A915A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -972,7 +964,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1027,9 +1019,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6DD1-42EB-B3AE-BC08A609255C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1195,7 +1184,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6DD1-42EB-B3AE-BC08A609255C}"/>
+              <c16:uniqueId val="{00000004-D28D-4A8B-83E7-675B0B8A915A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,7 +1548,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6BB-4F76-908F-F40DF7D53318}"/>
+              <c16:uniqueId val="{00000000-5A4B-4505-AB97-7E6C54324667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1677,7 +1666,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6BB-4F76-908F-F40DF7D53318}"/>
+              <c16:uniqueId val="{00000001-5A4B-4505-AB97-7E6C54324667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1795,7 +1784,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A6BB-4F76-908F-F40DF7D53318}"/>
+              <c16:uniqueId val="{00000002-5A4B-4505-AB97-7E6C54324667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1853,7 +1842,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="10"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1908,9 +1897,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A6BB-4F76-908F-F40DF7D53318}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2070,7 +2056,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A6BB-4F76-908F-F40DF7D53318}"/>
+              <c16:uniqueId val="{00000004-5A4B-4505-AB97-7E6C54324667}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2440,7 +2426,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC54-416E-904B-C8052C9E0C75}"/>
+              <c16:uniqueId val="{00000000-4E4B-48AC-AC90-45CF686009D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2564,7 +2550,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC54-416E-904B-C8052C9E0C75}"/>
+              <c16:uniqueId val="{00000001-4E4B-48AC-AC90-45CF686009D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2688,7 +2674,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CC54-416E-904B-C8052C9E0C75}"/>
+              <c16:uniqueId val="{00000002-4E4B-48AC-AC90-45CF686009D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2746,7 +2732,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2801,9 +2787,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CC54-416E-904B-C8052C9E0C75}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2969,7 +2952,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CC54-416E-904B-C8052C9E0C75}"/>
+              <c16:uniqueId val="{00000004-4E4B-48AC-AC90-45CF686009D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3333,7 +3316,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD4C-478B-8974-DB08A74BA3F9}"/>
+              <c16:uniqueId val="{00000000-A37B-44D1-8672-A6252B8F034F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3451,7 +3434,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD4C-478B-8974-DB08A74BA3F9}"/>
+              <c16:uniqueId val="{00000001-A37B-44D1-8672-A6252B8F034F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3569,7 +3552,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CD4C-478B-8974-DB08A74BA3F9}"/>
+              <c16:uniqueId val="{00000002-A37B-44D1-8672-A6252B8F034F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3627,7 +3610,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="10"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3682,9 +3665,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CD4C-478B-8974-DB08A74BA3F9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3844,7 +3824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CD4C-478B-8974-DB08A74BA3F9}"/>
+              <c16:uniqueId val="{00000004-A37B-44D1-8672-A6252B8F034F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4214,7 +4194,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA33-4FF8-9CB2-7D979264C19B}"/>
+              <c16:uniqueId val="{00000000-BAD0-4414-88BB-6712BA95236B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4338,7 +4318,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA33-4FF8-9CB2-7D979264C19B}"/>
+              <c16:uniqueId val="{00000001-BAD0-4414-88BB-6712BA95236B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4462,7 +4442,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA33-4FF8-9CB2-7D979264C19B}"/>
+              <c16:uniqueId val="{00000002-BAD0-4414-88BB-6712BA95236B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4520,7 +4500,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4575,9 +4555,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AA33-4FF8-9CB2-7D979264C19B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4743,7 +4720,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AA33-4FF8-9CB2-7D979264C19B}"/>
+              <c16:uniqueId val="{00000004-BAD0-4414-88BB-6712BA95236B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5113,7 +5090,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6419-465B-980E-BDC7088605D9}"/>
+              <c16:uniqueId val="{00000000-7E6A-4B37-AF6E-4519616EE7C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5237,7 +5214,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6419-465B-980E-BDC7088605D9}"/>
+              <c16:uniqueId val="{00000001-7E6A-4B37-AF6E-4519616EE7C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5361,7 +5338,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6419-465B-980E-BDC7088605D9}"/>
+              <c16:uniqueId val="{00000002-7E6A-4B37-AF6E-4519616EE7C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5419,7 +5396,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5474,9 +5451,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6419-465B-980E-BDC7088605D9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5642,7 +5616,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6419-465B-980E-BDC7088605D9}"/>
+              <c16:uniqueId val="{00000004-7E6A-4B37-AF6E-4519616EE7C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5982,7 +5956,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C82-4640-AFA9-71C4A0A40C53}"/>
+              <c16:uniqueId val="{00000000-40FD-49E8-9B6B-33146B237E21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6076,7 +6050,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C82-4640-AFA9-71C4A0A40C53}"/>
+              <c16:uniqueId val="{00000001-40FD-49E8-9B6B-33146B237E21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6170,7 +6144,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C82-4640-AFA9-71C4A0A40C53}"/>
+              <c16:uniqueId val="{00000002-40FD-49E8-9B6B-33146B237E21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6228,7 +6202,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -6283,9 +6257,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3C82-4640-AFA9-71C4A0A40C53}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6421,7 +6392,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3C82-4640-AFA9-71C4A0A40C53}"/>
+              <c16:uniqueId val="{00000004-40FD-49E8-9B6B-33146B237E21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6650,7 +6621,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B77463E-FF04-4F9E-BB7A-1DAD10D20CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE30E8F8-16A0-4EB1-B795-24071178B7A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6683,7 +6654,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45A147E-8333-4CB5-9857-4E0938EBB206}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85B5E5C-41DF-45A7-9616-4E8E4DECB18F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6716,7 +6687,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57218D5A-EE23-4E76-AA38-AFAF1D7F8D5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FEF987-BFA5-4CF1-91B0-A29C38EC04CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6749,7 +6720,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94583828-30D7-47F2-98B2-DD64F585E972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D0BBD3-37E5-4FA7-BCD7-ED58082DCB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6782,7 +6753,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C28C157-BEF0-4FF9-99EC-5E1113394D2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADB3FB8-877C-4926-B7B7-187F541831A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6815,7 +6786,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F91098-A934-4ABC-AE31-B29587D7F2DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BB37C8-1394-41B5-ACFC-588A57AB72E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6848,7 +6819,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42CFF8E-423F-4DFB-A9C7-585390428507}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827EEF5-40B3-4718-9248-0BF5706BFD33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7284,37 +7255,37 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="16">
         <v>9</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>6</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="16">
         <v>3</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <v>11</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="16">
         <v>7</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="16">
         <v>2</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="16">
         <v>1</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="16">
         <v>5</v>
       </c>
     </row>
@@ -7325,37 +7296,37 @@
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>6</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="16">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="16">
         <v>3</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>9</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="16">
         <v>7</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <v>4</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="16">
         <v>10</v>
       </c>
     </row>
@@ -7366,37 +7337,37 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>7</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>9</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>11</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>3</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>4</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>1</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="16">
         <v>8</v>
       </c>
     </row>
@@ -7407,37 +7378,37 @@
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>8</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>10</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>9</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="16">
         <v>6</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <v>7</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="16">
         <v>2</v>
       </c>
     </row>
@@ -7446,39 +7417,39 @@
         <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
         <v>6.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>6.25</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>8.25</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>8</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>5.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>4.75</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>4.25</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>1</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>6.25</v>
       </c>
     </row>
@@ -7489,37 +7460,37 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>7</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>4</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>10</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="16">
         <v>2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>8</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>5</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="16">
         <v>11</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7530,37 +7501,37 @@
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>9</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>6</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="16">
         <v>2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
         <v>8</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
         <v>6</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="16">
         <v>9</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="16">
         <v>9</v>
       </c>
     </row>
@@ -7569,39 +7540,39 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="12">
+        <v>51</v>
+      </c>
+      <c r="C10" s="16">
         <v>6.25</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>6.04</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>5.71</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>7.75</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>3.86</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>7.43</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>4.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>5.68</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>4.6100000000000003</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="16">
         <v>6.18</v>
       </c>
     </row>
@@ -7612,37 +7583,37 @@
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="16">
         <v>5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="16">
         <v>4</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="16">
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="16">
         <v>6</v>
       </c>
     </row>
@@ -7653,50 +7624,50 @@
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>5.67</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>5.92</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>5.41</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>7.75</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>3.86</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>7.05</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>4.5</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>5.16</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>4.6100000000000003</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="16">
         <v>6.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{DD2D5F40-C97A-426B-904E-CD22A79EB232}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{019E7426-617C-4A37-9B25-9E224D05BD79}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{461EC524-F0B2-430C-9187-3C56481A1AF9}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{203F63AA-488B-437F-BFAA-44B604A8F660}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{13A3CD4F-061C-4E43-9D72-AEE7013BC647}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{C076A881-89C7-4694-A9DC-2BEBB2035795}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{9FDE6FE4-7FFA-4256-8DF1-28CD8B467B9D}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{DF16F5CF-4FB6-47E3-AFF7-9F0A7901D714}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C636FA3E-0BEE-48A1-A482-C47D11F0D443}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3A363A4A-E4A9-4648-BA7D-EADB21BFE04C}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{0700DE0B-35B3-4F0C-9F1D-9E74D43A92D4}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{3680B0EA-ADB3-4FDA-867F-2580243724C1}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{BAAB63D2-222E-4010-8467-B29ED3F791E1}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{FA751978-2568-4667-86D0-4A2EE3E20F7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7704,7 +7675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E40D798-5DC1-4C8A-A43C-6735B521C1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D3295D-D5F3-4B95-9B5A-52975DBFDA01}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7755,16 +7726,16 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>1.89E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>1.89E-2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="9">
@@ -7778,16 +7749,16 @@
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>5.91E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="G3" s="9">
@@ -7801,16 +7772,16 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="G4" s="9">
@@ -7824,16 +7795,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="G5" s="9">
@@ -7847,16 +7818,16 @@
       <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="9">
@@ -7870,16 +7841,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.1109</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>0.11020000000000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0.1615</v>
       </c>
       <c r="G7" s="9">
@@ -7893,16 +7864,16 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.1134</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.1429</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0.1268</v>
       </c>
       <c r="G8" s="9">
@@ -7916,16 +7887,16 @@
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.1162</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.1018</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0.12670000000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0.1235</v>
       </c>
       <c r="G9" s="9">
@@ -7939,16 +7910,16 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>0.13689999999999999</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.14549999999999999</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0.13639999999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.12970000000000001</v>
       </c>
       <c r="G10" s="9">
@@ -7962,16 +7933,16 @@
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>0.18709999999999999</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0.20250000000000001</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>0.1633</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>0.2069</v>
       </c>
       <c r="G11" s="9">
@@ -7985,16 +7956,16 @@
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>0.20300000000000001</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>0.17560000000000001</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>0.23230000000000001</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>0.20930000000000001</v>
       </c>
       <c r="G12" s="9">
@@ -8008,16 +7979,16 @@
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>0.1061</v>
       </c>
       <c r="G13" s="9">
@@ -8046,7 +8017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6895530-8374-4679-BABD-DFCF95EAABBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11AC7A7-8C16-4787-8205-844FB925000D}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8087,7 +8058,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8097,16 +8068,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.5333</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0.5</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>0.5</v>
       </c>
       <c r="G2" s="9">
@@ -8120,16 +8091,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.47620000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.8</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.2</v>
       </c>
       <c r="G3" s="9">
@@ -8143,16 +8114,16 @@
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.41320000000000001</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.24390000000000001</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>0.5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>0.5</v>
       </c>
       <c r="G4" s="9">
@@ -8166,16 +8137,16 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>0.4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.45450000000000002</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.36840000000000001</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.36840000000000001</v>
       </c>
       <c r="G5" s="9">
@@ -8189,16 +8160,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.31580000000000003</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>0.25</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>0.6</v>
       </c>
       <c r="G6" s="9">
@@ -8212,16 +8183,16 @@
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.3085</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>0.34210000000000002</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>0.24</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0.3226</v>
       </c>
       <c r="G7" s="9">
@@ -8235,16 +8206,16 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.25929999999999997</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0.22220000000000001</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.1429</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0.36359999999999998</v>
       </c>
       <c r="G8" s="9">
@@ -8258,16 +8229,16 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.19839999999999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.28210000000000002</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0.1389</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0.17649999999999999</v>
       </c>
       <c r="G9" s="9">
@@ -8281,16 +8252,16 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.16669999999999999</v>
       </c>
       <c r="G10" s="9">
@@ -8304,16 +8275,16 @@
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9">
@@ -8327,16 +8298,16 @@
       <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>0.3125</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>0.2928</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>0.31580000000000003</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>0.3296</v>
       </c>
       <c r="G12" s="9">
@@ -8350,16 +8321,16 @@
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -8377,7 +8348,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8388,7 +8359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FBF4D5-2F95-46F0-9C46-56A7E53821E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D17B84-5B73-423A-A546-CCFFB96FF0EE}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8400,9 +8371,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8431,7 +8402,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8441,16 +8412,16 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>92225.279999999999</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>101541.13</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>73593.58</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="9">
@@ -8464,16 +8435,16 @@
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>59770.73</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>53085.43</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>54754.54</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>71495.81</v>
       </c>
       <c r="G3" s="9">
@@ -8487,16 +8458,16 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>42887.73</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>43904.04</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>45562.89</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>39264.29</v>
       </c>
       <c r="G4" s="9">
@@ -8510,16 +8481,16 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>42302.53</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>43030.36</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>47193.33</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>37058.910000000003</v>
       </c>
       <c r="G5" s="9">
@@ -8533,16 +8504,16 @@
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>42110.62</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>46139.62</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>38335.919999999998</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>40703.440000000002</v>
       </c>
       <c r="G6" s="9">
@@ -8556,16 +8527,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>38701.97</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>35876.589999999997</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>40166.74</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>40765.440000000002</v>
       </c>
       <c r="G7" s="9">
@@ -8579,16 +8550,16 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>38436.97</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>40493.83</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>31851.49</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>44251.39</v>
       </c>
       <c r="G8" s="9">
@@ -8602,16 +8573,16 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>35168.19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>35168.19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9">
@@ -8625,16 +8596,16 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>34581.32</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>32121.39</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>37164.959999999999</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="13">
         <v>34945.24</v>
       </c>
       <c r="G10" s="9">
@@ -8648,16 +8619,16 @@
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>33191.129999999997</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>32687.64</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>32131.77</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>34618.550000000003</v>
       </c>
       <c r="G11" s="9">
@@ -8671,16 +8642,16 @@
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>31741.32</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>30604.86</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>32858.300000000003</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <v>32024.58</v>
       </c>
       <c r="G12" s="9">
@@ -8694,16 +8665,16 @@
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>38682.99</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>38470.54</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>37624.720000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <v>40012.21</v>
       </c>
       <c r="G13" s="9">
@@ -8732,7 +8703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F17A06E-4CB1-410D-959E-3FA7AAEE88F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C2B0A4-DA8A-4A60-986B-53F7D1F4082F}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8744,7 +8715,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8773,7 +8744,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8783,16 +8754,16 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.73</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.71</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>2.77</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.72</v>
       </c>
       <c r="G2" s="9">
@@ -8806,16 +8777,16 @@
       <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.83</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.83</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="9">
@@ -8829,16 +8800,16 @@
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>3.14</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3.24</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3.12</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>3.08</v>
       </c>
       <c r="G4" s="9">
@@ -8852,16 +8823,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.19</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3.38</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>3.11</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>3.21</v>
       </c>
       <c r="G5" s="9">
@@ -8875,16 +8846,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3.23</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3.25</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>3.1</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.32</v>
       </c>
       <c r="G6" s="9">
@@ -8898,16 +8869,16 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>3.52</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>3.43</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>3.64</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>3.5</v>
       </c>
       <c r="G7" s="9">
@@ -8921,16 +8892,16 @@
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3.62</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>3.48</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>3.39</v>
       </c>
       <c r="G8" s="9">
@@ -8944,16 +8915,16 @@
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>4.03</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>4.3</v>
       </c>
       <c r="G9" s="9">
@@ -8967,16 +8938,16 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>4.18</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>4.29</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>3.85</v>
       </c>
       <c r="G10" s="9">
@@ -8990,16 +8961,16 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>4.54</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>4.49</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>4.74</v>
       </c>
       <c r="G11" s="9">
@@ -9013,16 +8984,16 @@
       <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3.25</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>3.22</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>3.26</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>3.28</v>
       </c>
       <c r="G12" s="9">
@@ -9036,16 +9007,16 @@
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9063,7 +9034,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9074,7 +9045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22CEDF9-D2E0-46A8-9056-A55F1A6E55FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CB4FAB-76B2-4FFD-869C-DE3C8D6F345E}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -9086,7 +9057,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9125,16 +9097,16 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>19.920000000000002</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>19.22</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>21.21</v>
       </c>
       <c r="G2" s="9">
@@ -9148,16 +9120,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>15.4</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>15.85</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>15.12</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>15.29</v>
       </c>
       <c r="G3" s="9">
@@ -9171,16 +9143,16 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>13.68</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>13.68</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="9">
@@ -9194,16 +9166,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>10.8</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>10.34</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>10.5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>11.54</v>
       </c>
       <c r="G5" s="9">
@@ -9217,16 +9189,16 @@
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>10.66</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>10.24</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>10.55</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>11.28</v>
       </c>
       <c r="G6" s="9">
@@ -9240,16 +9212,16 @@
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>9.77</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>9.49</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>9.8800000000000008</v>
       </c>
       <c r="G7" s="9">
@@ -9263,16 +9235,16 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>9.08</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>7.5</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>10.029999999999999</v>
       </c>
       <c r="G8" s="9">
@@ -9286,16 +9258,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>8.3800000000000008</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>8.32</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>8.24</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>8.59</v>
       </c>
       <c r="G9" s="9">
@@ -9309,16 +9281,16 @@
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>7.05</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>7.04</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>7.29</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>6.82</v>
       </c>
       <c r="G10" s="9">
@@ -9332,16 +9304,16 @@
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>7.02</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>6.74</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>5.76</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>8.5299999999999994</v>
       </c>
       <c r="G11" s="9">
@@ -9355,16 +9327,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>5.78</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>5.45</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9">
@@ -9378,16 +9350,16 @@
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>12.34</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>12.14</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>12</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>12.9</v>
       </c>
       <c r="G13" s="9">
@@ -9416,7 +9388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FED1A5E-DA87-4C51-B4A5-4AC8280BB175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A768F3C-7085-423C-903D-BAECA2BD1A3A}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -9428,8 +9400,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9468,16 +9440,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>5.67</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>7</v>
       </c>
       <c r="G2" s="9">
@@ -9491,16 +9463,16 @@
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
       <c r="G3" s="9">
@@ -9514,16 +9486,16 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>3</v>
       </c>
       <c r="G4" s="9">
@@ -9537,16 +9509,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="9">
@@ -9560,16 +9532,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
       <c r="G6" s="9">
@@ -9583,16 +9555,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.67</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="9">
@@ -9606,16 +9578,16 @@
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0.67</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -9629,16 +9601,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.33</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -9652,16 +9624,16 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -9675,16 +9647,16 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9">
@@ -9698,16 +9670,16 @@
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9">
@@ -9721,16 +9693,16 @@
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>13.33</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>11</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>14</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>15</v>
       </c>
       <c r="G13" s="9">
@@ -9759,7 +9731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DFFEC-F464-4E25-936A-D83456E7FD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBF458-BEDB-40A2-A4A4-0F9B5882EC9D}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -9771,9 +9743,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9812,16 +9784,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>5.33</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>4</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>9</v>
       </c>
       <c r="G2" s="9">
@@ -9835,16 +9807,16 @@
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>5.33</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>4</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>9</v>
       </c>
       <c r="G3" s="9">
@@ -9858,16 +9830,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>5</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
       <c r="G4" s="9">
@@ -9881,16 +9853,16 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.33</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>6</v>
       </c>
       <c r="G5" s="9">
@@ -9904,16 +9876,16 @@
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>1.67</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
       <c r="G6" s="9">
@@ -9927,16 +9899,16 @@
       <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="9">
@@ -9950,16 +9922,16 @@
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>19.670000000000002</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>9</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>17</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>33</v>
       </c>
       <c r="G8" s="9">
@@ -9973,16 +9945,16 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -9996,16 +9968,16 @@
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -10019,16 +9991,16 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -10042,16 +10014,16 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -10065,16 +10037,16 @@
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -10092,7 +10064,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/政治大學.xlsx
+++ b/test/1. 各院彙整資料/政治大學.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310F437-E930-416C-BABE-392D70C4BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F897C9-58EB-424A-A4E8-9E620E2D99BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{E3400394-0E26-4170-A555-6D1C60A903D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{E3400394-0E26-4170-A555-6D1C60A903D3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -658,7 +658,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D28D-4A8B-83E7-675B0B8A915A}"/>
+              <c16:uniqueId val="{00000000-5AA1-4797-80E2-2E0373E878E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -782,7 +782,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D28D-4A8B-83E7-675B0B8A915A}"/>
+              <c16:uniqueId val="{00000001-5AA1-4797-80E2-2E0373E878E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -906,7 +906,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D28D-4A8B-83E7-675B0B8A915A}"/>
+              <c16:uniqueId val="{00000002-5AA1-4797-80E2-2E0373E878E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1184,7 +1184,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D28D-4A8B-83E7-675B0B8A915A}"/>
+              <c16:uniqueId val="{00000004-5AA1-4797-80E2-2E0373E878E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1548,7 +1548,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A4B-4505-AB97-7E6C54324667}"/>
+              <c16:uniqueId val="{00000000-B676-4C3F-9826-7E346622A4E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1666,7 +1666,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A4B-4505-AB97-7E6C54324667}"/>
+              <c16:uniqueId val="{00000001-B676-4C3F-9826-7E346622A4E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1784,7 +1784,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5A4B-4505-AB97-7E6C54324667}"/>
+              <c16:uniqueId val="{00000002-B676-4C3F-9826-7E346622A4E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2056,7 +2056,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5A4B-4505-AB97-7E6C54324667}"/>
+              <c16:uniqueId val="{00000004-B676-4C3F-9826-7E346622A4E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2426,7 +2426,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E4B-48AC-AC90-45CF686009D2}"/>
+              <c16:uniqueId val="{00000000-D089-421D-998E-E8676C0C830E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2550,7 +2550,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E4B-48AC-AC90-45CF686009D2}"/>
+              <c16:uniqueId val="{00000001-D089-421D-998E-E8676C0C830E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2674,7 +2674,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E4B-48AC-AC90-45CF686009D2}"/>
+              <c16:uniqueId val="{00000002-D089-421D-998E-E8676C0C830E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2952,7 +2952,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4E4B-48AC-AC90-45CF686009D2}"/>
+              <c16:uniqueId val="{00000004-D089-421D-998E-E8676C0C830E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3316,7 +3316,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A37B-44D1-8672-A6252B8F034F}"/>
+              <c16:uniqueId val="{00000000-197E-4E75-8A27-8BAEE360DCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3434,7 +3434,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A37B-44D1-8672-A6252B8F034F}"/>
+              <c16:uniqueId val="{00000001-197E-4E75-8A27-8BAEE360DCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3552,7 +3552,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A37B-44D1-8672-A6252B8F034F}"/>
+              <c16:uniqueId val="{00000002-197E-4E75-8A27-8BAEE360DCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3824,7 +3824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A37B-44D1-8672-A6252B8F034F}"/>
+              <c16:uniqueId val="{00000004-197E-4E75-8A27-8BAEE360DCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4194,7 +4194,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAD0-4414-88BB-6712BA95236B}"/>
+              <c16:uniqueId val="{00000000-E797-4C50-8444-16A7DCDA6BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4318,7 +4318,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAD0-4414-88BB-6712BA95236B}"/>
+              <c16:uniqueId val="{00000001-E797-4C50-8444-16A7DCDA6BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4442,7 +4442,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BAD0-4414-88BB-6712BA95236B}"/>
+              <c16:uniqueId val="{00000002-E797-4C50-8444-16A7DCDA6BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4720,7 +4720,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BAD0-4414-88BB-6712BA95236B}"/>
+              <c16:uniqueId val="{00000004-E797-4C50-8444-16A7DCDA6BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5090,7 +5090,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E6A-4B37-AF6E-4519616EE7C7}"/>
+              <c16:uniqueId val="{00000000-2AA0-4086-8E61-AB2C89769088}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5214,7 +5214,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E6A-4B37-AF6E-4519616EE7C7}"/>
+              <c16:uniqueId val="{00000001-2AA0-4086-8E61-AB2C89769088}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5338,7 +5338,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7E6A-4B37-AF6E-4519616EE7C7}"/>
+              <c16:uniqueId val="{00000002-2AA0-4086-8E61-AB2C89769088}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5616,7 +5616,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7E6A-4B37-AF6E-4519616EE7C7}"/>
+              <c16:uniqueId val="{00000004-2AA0-4086-8E61-AB2C89769088}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5956,7 +5956,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-40FD-49E8-9B6B-33146B237E21}"/>
+              <c16:uniqueId val="{00000000-148C-4FAD-B897-F2344FD4310F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6050,7 +6050,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-40FD-49E8-9B6B-33146B237E21}"/>
+              <c16:uniqueId val="{00000001-148C-4FAD-B897-F2344FD4310F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6144,7 +6144,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-40FD-49E8-9B6B-33146B237E21}"/>
+              <c16:uniqueId val="{00000002-148C-4FAD-B897-F2344FD4310F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6392,7 +6392,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-40FD-49E8-9B6B-33146B237E21}"/>
+              <c16:uniqueId val="{00000004-148C-4FAD-B897-F2344FD4310F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6621,7 +6621,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE30E8F8-16A0-4EB1-B795-24071178B7A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7818AA60-ADEA-4026-A08A-269B851AF3C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6654,7 +6654,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85B5E5C-41DF-45A7-9616-4E8E4DECB18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA9EFD6-5CFD-4173-B800-61A4A82F86A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6687,7 +6687,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FEF987-BFA5-4CF1-91B0-A29C38EC04CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFC224B-1F40-4FA7-B2AE-8867F6736DE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6720,7 +6720,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D0BBD3-37E5-4FA7-BCD7-ED58082DCB53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7D0183-2D3F-449C-9298-1830D3DD4265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6753,7 +6753,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADB3FB8-877C-4926-B7B7-187F541831A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4B9420-32CB-4B98-8ADA-43B6970A382A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6786,7 +6786,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BB37C8-1394-41B5-ACFC-588A57AB72E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FAFF2B-AFED-42FB-BF4F-31721F8BF5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6819,7 +6819,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827EEF5-40B3-4718-9248-0BF5706BFD33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F20E4B3-CFBD-444C-B3E8-A207527FD80B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7661,13 +7661,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{DF16F5CF-4FB6-47E3-AFF7-9F0A7901D714}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C636FA3E-0BEE-48A1-A482-C47D11F0D443}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3A363A4A-E4A9-4648-BA7D-EADB21BFE04C}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{0700DE0B-35B3-4F0C-9F1D-9E74D43A92D4}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{3680B0EA-ADB3-4FDA-867F-2580243724C1}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{BAAB63D2-222E-4010-8467-B29ED3F791E1}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{FA751978-2568-4667-86D0-4A2EE3E20F7C}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{FDE9247C-2073-4F54-B8BA-9DAE53BD8A08}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{759A5321-80CE-45B3-8119-C2E4115BCD58}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{BB6F576F-C398-4F57-9533-440ED259D9F1}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{57489985-75B7-4F2C-ADA2-AFDD424EC8A5}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AAE8A1B1-ADA7-4CEB-91F3-77C90E970D5D}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{572DBFE3-ECA2-4F3F-85DA-B2A687C74B82}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{986015D8-C34F-43A8-BFBD-E8FE1B5230B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7675,9 +7675,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D3295D-D5F3-4B95-9B5A-52975DBFDA01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D0106B-41FD-4843-BB03-FEC0E411F47C}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7693,7 +7693,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7715,11 +7715,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -8017,9 +8017,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11AC7A7-8C16-4787-8205-844FB925000D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21638496-0547-4574-A619-94060269F560}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8035,7 +8035,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8057,11 +8057,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -8359,9 +8359,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D17B84-5B73-423A-A546-CCFFB96FF0EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456E80D1-AAD4-49B2-BED8-AF98E1460430}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8379,7 +8379,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8401,11 +8401,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -8703,9 +8703,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C2B0A4-DA8A-4A60-986B-53F7D1F4082F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF4A78C-BB08-427C-9736-3F4A9DD21546}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8721,7 +8721,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8743,11 +8743,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -9045,9 +9045,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CB4FAB-76B2-4FFD-869C-DE3C8D6F345E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D15B5B-53ED-4CFD-91EB-0CACB462C30A}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9064,7 +9064,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9086,11 +9086,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -9388,9 +9388,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A768F3C-7085-423C-903D-BAECA2BD1A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD75A83-EC23-4BC9-B44F-526420739B0A}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9407,7 +9407,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9429,11 +9429,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -9731,9 +9731,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBF458-BEDB-40A2-A4A4-0F9B5882EC9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7113B5B-EE2D-4E06-A934-B8EE18222DB0}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9751,7 +9751,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9773,11 +9773,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
